--- a/catalogo_produtos.xlsx
+++ b/catalogo_produtos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcio.silva\Documents\GitHub\catalogo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcio.silva\Documents\GitHub\catalogo-ampa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{216C5415-1FCB-4CC2-8E87-232FE8E254A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D49EDDA8-A42D-428D-A765-F273D2C4F58D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-765" windowWidth="19440" windowHeight="14880" xr2:uid="{9FDC799A-A518-4814-A51D-97AF7748B86C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{9FDC799A-A518-4814-A51D-97AF7748B86C}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -4449,24 +4449,6 @@
     <t>Nome</t>
   </si>
   <si>
-    <t>BAZAR</t>
-  </si>
-  <si>
-    <t>COMMODITIES</t>
-  </si>
-  <si>
-    <t>BEBIDAS</t>
-  </si>
-  <si>
-    <t>MERCEARIA</t>
-  </si>
-  <si>
-    <t>CONGELADOS</t>
-  </si>
-  <si>
-    <t>RESFRIADOS</t>
-  </si>
-  <si>
     <t>Batata Congelada McCain SureCrisp Corte Tradicional 2,5Kg</t>
   </si>
   <si>
@@ -5152,6 +5134,24 @@
   </si>
   <si>
     <t>1768.jpg</t>
+  </si>
+  <si>
+    <t>Bazar</t>
+  </si>
+  <si>
+    <t>Bebidas</t>
+  </si>
+  <si>
+    <t>Commodities</t>
+  </si>
+  <si>
+    <t>Congelados</t>
+  </si>
+  <si>
+    <t>Mercearia</t>
+  </si>
+  <si>
+    <t>Resfriados</t>
   </si>
 </sst>
 </file>
@@ -31567,7 +31567,7 @@
   <dimension ref="A1:E4965"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F2" sqref="F2:F850"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31604,7 +31604,7 @@
         <v>150</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>1472</v>
+        <v>1701</v>
       </c>
       <c r="E2" s="3">
         <f>IFERROR(VLOOKUP(A2,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31622,7 +31622,7 @@
         <v>437</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>1472</v>
+        <v>1701</v>
       </c>
       <c r="E3" s="3">
         <f>IFERROR(VLOOKUP(A3,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31634,13 +31634,13 @@
         <v>1946</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>1489</v>
+        <v>1483</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1603</v>
+        <v>1597</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>1472</v>
+        <v>1701</v>
       </c>
       <c r="E4" s="3">
         <f>IFERROR(VLOOKUP(A4,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31658,7 +31658,7 @@
         <v>438</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>1472</v>
+        <v>1701</v>
       </c>
       <c r="E5" s="3">
         <f>IFERROR(VLOOKUP(A5,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31676,7 +31676,7 @@
         <v>211</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>1472</v>
+        <v>1701</v>
       </c>
       <c r="E6" s="3">
         <f>IFERROR(VLOOKUP(A6,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31694,7 +31694,7 @@
         <v>444</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>1472</v>
+        <v>1701</v>
       </c>
       <c r="E7" s="3">
         <f>IFERROR(VLOOKUP(A7,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31712,7 +31712,7 @@
         <v>442</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>1472</v>
+        <v>1701</v>
       </c>
       <c r="E8" s="3">
         <f>IFERROR(VLOOKUP(A8,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31730,7 +31730,7 @@
         <v>443</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>1472</v>
+        <v>1701</v>
       </c>
       <c r="E9" s="3">
         <f>IFERROR(VLOOKUP(A9,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31748,7 +31748,7 @@
         <v>149</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>1472</v>
+        <v>1701</v>
       </c>
       <c r="E10" s="3">
         <f>IFERROR(VLOOKUP(A10,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31766,7 +31766,7 @@
         <v>208</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>1472</v>
+        <v>1701</v>
       </c>
       <c r="E11" s="3">
         <f>IFERROR(VLOOKUP(A11,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31784,7 +31784,7 @@
         <v>148</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>1472</v>
+        <v>1701</v>
       </c>
       <c r="E12" s="3">
         <f>IFERROR(VLOOKUP(A12,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31802,7 +31802,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>1472</v>
+        <v>1701</v>
       </c>
       <c r="E13" s="3">
         <f>IFERROR(VLOOKUP(A13,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31820,7 +31820,7 @@
         <v>383</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>1472</v>
+        <v>1701</v>
       </c>
       <c r="E14" s="3">
         <f>IFERROR(VLOOKUP(A14,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31838,7 +31838,7 @@
         <v>210</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>1472</v>
+        <v>1701</v>
       </c>
       <c r="E15" s="3">
         <f>IFERROR(VLOOKUP(A15,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31856,7 +31856,7 @@
         <v>209</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>1472</v>
+        <v>1701</v>
       </c>
       <c r="E16" s="3">
         <f>IFERROR(VLOOKUP(A16,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31874,7 +31874,7 @@
         <v>374</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>1472</v>
+        <v>1701</v>
       </c>
       <c r="E17" s="3">
         <f>IFERROR(VLOOKUP(A17,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31892,7 +31892,7 @@
         <v>382</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>1472</v>
+        <v>1701</v>
       </c>
       <c r="E18" s="3">
         <f>IFERROR(VLOOKUP(A18,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31910,7 +31910,7 @@
         <v>38</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>1472</v>
+        <v>1701</v>
       </c>
       <c r="E19" s="3">
         <f>IFERROR(VLOOKUP(A19,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31928,7 +31928,7 @@
         <v>384</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>1472</v>
+        <v>1701</v>
       </c>
       <c r="E20" s="3">
         <f>IFERROR(VLOOKUP(A20,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31946,7 +31946,7 @@
         <v>436</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>1472</v>
+        <v>1701</v>
       </c>
       <c r="E21" s="3">
         <f>IFERROR(VLOOKUP(A21,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31964,7 +31964,7 @@
         <v>370</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>1472</v>
+        <v>1701</v>
       </c>
       <c r="E22" s="3">
         <f>IFERROR(VLOOKUP(A22,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31982,7 +31982,7 @@
         <v>215</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>1472</v>
+        <v>1701</v>
       </c>
       <c r="E23" s="3">
         <f>IFERROR(VLOOKUP(A23,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32000,7 +32000,7 @@
         <v>147</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>1472</v>
+        <v>1701</v>
       </c>
       <c r="E24" s="3">
         <f>IFERROR(VLOOKUP(A24,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32018,7 +32018,7 @@
         <v>354</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>1472</v>
+        <v>1701</v>
       </c>
       <c r="E25" s="3">
         <f>IFERROR(VLOOKUP(A25,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32036,7 +32036,7 @@
         <v>50</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>1472</v>
+        <v>1701</v>
       </c>
       <c r="E26" s="3">
         <f>IFERROR(VLOOKUP(A26,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32054,7 +32054,7 @@
         <v>355</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>1472</v>
+        <v>1701</v>
       </c>
       <c r="E27" s="3">
         <f>IFERROR(VLOOKUP(A27,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32072,7 +32072,7 @@
         <v>445</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>1472</v>
+        <v>1701</v>
       </c>
       <c r="E28" s="3">
         <f>IFERROR(VLOOKUP(A28,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32090,7 +32090,7 @@
         <v>37</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>1472</v>
+        <v>1701</v>
       </c>
       <c r="E29" s="3">
         <f>IFERROR(VLOOKUP(A29,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32108,7 +32108,7 @@
         <v>146</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>1472</v>
+        <v>1701</v>
       </c>
       <c r="E30" s="3">
         <f>IFERROR(VLOOKUP(A30,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32126,7 +32126,7 @@
         <v>212</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>1472</v>
+        <v>1701</v>
       </c>
       <c r="E31" s="3">
         <f>IFERROR(VLOOKUP(A31,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32144,7 +32144,7 @@
         <v>369</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>1472</v>
+        <v>1701</v>
       </c>
       <c r="E32" s="3">
         <f>IFERROR(VLOOKUP(A32,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32162,7 +32162,7 @@
         <v>468</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>1472</v>
+        <v>1701</v>
       </c>
       <c r="E33" s="3">
         <f>IFERROR(VLOOKUP(A33,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32180,7 +32180,7 @@
         <v>36</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>1472</v>
+        <v>1701</v>
       </c>
       <c r="E34" s="3">
         <f>IFERROR(VLOOKUP(A34,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32198,7 +32198,7 @@
         <v>189</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>1472</v>
+        <v>1701</v>
       </c>
       <c r="E35" s="3">
         <f>IFERROR(VLOOKUP(A35,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32216,7 +32216,7 @@
         <v>397</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>1472</v>
+        <v>1701</v>
       </c>
       <c r="E36" s="3">
         <f>IFERROR(VLOOKUP(A36,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32234,7 +32234,7 @@
         <v>467</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>1472</v>
+        <v>1701</v>
       </c>
       <c r="E37" s="3">
         <f>IFERROR(VLOOKUP(A37,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32252,7 +32252,7 @@
         <v>469</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>1472</v>
+        <v>1701</v>
       </c>
       <c r="E38" s="3">
         <f>IFERROR(VLOOKUP(A38,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32270,7 +32270,7 @@
         <v>10</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E39" s="3">
         <f>IFERROR(VLOOKUP(A39,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32288,7 +32288,7 @@
         <v>9</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E40" s="3">
         <f>IFERROR(VLOOKUP(A40,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32306,7 +32306,7 @@
         <v>465</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E41" s="3">
         <f>IFERROR(VLOOKUP(A41,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32324,7 +32324,7 @@
         <v>464</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E42" s="3">
         <f>IFERROR(VLOOKUP(A42,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32342,7 +32342,7 @@
         <v>463</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E43" s="3">
         <f>IFERROR(VLOOKUP(A43,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32360,7 +32360,7 @@
         <v>427</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E44" s="3">
         <f>IFERROR(VLOOKUP(A44,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32378,7 +32378,7 @@
         <v>456</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E45" s="3">
         <f>IFERROR(VLOOKUP(A45,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32396,7 +32396,7 @@
         <v>460</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E46" s="3">
         <f>IFERROR(VLOOKUP(A46,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32414,7 +32414,7 @@
         <v>458</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E47" s="3">
         <f>IFERROR(VLOOKUP(A47,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32432,7 +32432,7 @@
         <v>457</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E48" s="3">
         <f>IFERROR(VLOOKUP(A48,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32450,7 +32450,7 @@
         <v>453</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E49" s="3">
         <f>IFERROR(VLOOKUP(A49,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32468,7 +32468,7 @@
         <v>455</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E50" s="3">
         <f>IFERROR(VLOOKUP(A50,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32486,7 +32486,7 @@
         <v>462</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E51" s="3">
         <f>IFERROR(VLOOKUP(A51,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32504,7 +32504,7 @@
         <v>461</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E52" s="3">
         <f>IFERROR(VLOOKUP(A52,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32522,7 +32522,7 @@
         <v>101</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E53" s="3">
         <f>IFERROR(VLOOKUP(A53,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32540,7 +32540,7 @@
         <v>459</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E54" s="3">
         <f>IFERROR(VLOOKUP(A54,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32558,7 +32558,7 @@
         <v>454</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E55" s="3">
         <f>IFERROR(VLOOKUP(A55,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32576,7 +32576,7 @@
         <v>428</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E56" s="3">
         <f>IFERROR(VLOOKUP(A56,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32594,7 +32594,7 @@
         <v>430</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E57" s="3">
         <f>IFERROR(VLOOKUP(A57,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32612,7 +32612,7 @@
         <v>506</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E58" s="3">
         <f>IFERROR(VLOOKUP(A58,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32630,7 +32630,7 @@
         <v>426</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E59" s="3">
         <f>IFERROR(VLOOKUP(A59,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32648,7 +32648,7 @@
         <v>409</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E60" s="3">
         <f>IFERROR(VLOOKUP(A60,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32666,7 +32666,7 @@
         <v>416</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E61" s="3">
         <f>IFERROR(VLOOKUP(A61,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32684,7 +32684,7 @@
         <v>521</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E62" s="3">
         <f>IFERROR(VLOOKUP(A62,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32702,7 +32702,7 @@
         <v>527</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E63" s="3">
         <f>IFERROR(VLOOKUP(A63,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32720,7 +32720,7 @@
         <v>419</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E64" s="3">
         <f>IFERROR(VLOOKUP(A64,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32738,7 +32738,7 @@
         <v>508</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E65" s="3">
         <f>IFERROR(VLOOKUP(A65,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32756,7 +32756,7 @@
         <v>418</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E66" s="3">
         <f>IFERROR(VLOOKUP(A66,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32774,7 +32774,7 @@
         <v>526</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E67" s="3">
         <f>IFERROR(VLOOKUP(A67,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32792,7 +32792,7 @@
         <v>423</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E68" s="3">
         <f>IFERROR(VLOOKUP(A68,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32810,7 +32810,7 @@
         <v>411</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E69" s="3">
         <f>IFERROR(VLOOKUP(A69,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32828,7 +32828,7 @@
         <v>415</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E70" s="3">
         <f>IFERROR(VLOOKUP(A70,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32846,7 +32846,7 @@
         <v>507</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E71" s="3">
         <f>IFERROR(VLOOKUP(A71,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32864,7 +32864,7 @@
         <v>424</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E72" s="3">
         <f>IFERROR(VLOOKUP(A72,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32882,7 +32882,7 @@
         <v>421</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E73" s="3">
         <f>IFERROR(VLOOKUP(A73,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32900,7 +32900,7 @@
         <v>413</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E74" s="3">
         <f>IFERROR(VLOOKUP(A74,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32918,7 +32918,7 @@
         <v>408</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E75" s="3">
         <f>IFERROR(VLOOKUP(A75,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32936,7 +32936,7 @@
         <v>414</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E76" s="3">
         <f>IFERROR(VLOOKUP(A76,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32954,7 +32954,7 @@
         <v>412</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E77" s="3">
         <f>IFERROR(VLOOKUP(A77,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32972,7 +32972,7 @@
         <v>429</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E78" s="3">
         <f>IFERROR(VLOOKUP(A78,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32990,7 +32990,7 @@
         <v>422</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E79" s="3">
         <f>IFERROR(VLOOKUP(A79,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33008,7 +33008,7 @@
         <v>417</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E80" s="3">
         <f>IFERROR(VLOOKUP(A80,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33026,7 +33026,7 @@
         <v>8</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E81" s="3">
         <f>IFERROR(VLOOKUP(A81,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33044,7 +33044,7 @@
         <v>525</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E82" s="3">
         <f>IFERROR(VLOOKUP(A82,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33062,7 +33062,7 @@
         <v>524</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E83" s="3">
         <f>IFERROR(VLOOKUP(A83,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33080,7 +33080,7 @@
         <v>583</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E84" s="3">
         <f>IFERROR(VLOOKUP(A84,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33098,7 +33098,7 @@
         <v>420</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E85" s="3">
         <f>IFERROR(VLOOKUP(A85,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33116,7 +33116,7 @@
         <v>715</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E86" s="3">
         <f>IFERROR(VLOOKUP(A86,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33134,7 +33134,7 @@
         <v>571</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E87" s="3">
         <f>IFERROR(VLOOKUP(A87,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33152,7 +33152,7 @@
         <v>425</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E88" s="3">
         <f>IFERROR(VLOOKUP(A88,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33170,7 +33170,7 @@
         <v>572</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E89" s="3">
         <f>IFERROR(VLOOKUP(A89,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33188,7 +33188,7 @@
         <v>566</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E90" s="3">
         <f>IFERROR(VLOOKUP(A90,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33206,7 +33206,7 @@
         <v>565</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E91" s="3">
         <f>IFERROR(VLOOKUP(A91,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33224,7 +33224,7 @@
         <v>159</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E92" s="3">
         <f>IFERROR(VLOOKUP(A92,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33242,7 +33242,7 @@
         <v>6</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E93" s="3">
         <f>IFERROR(VLOOKUP(A93,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33260,7 +33260,7 @@
         <v>166</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E94" s="3">
         <f>IFERROR(VLOOKUP(A94,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33278,7 +33278,7 @@
         <v>7</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E95" s="3">
         <f>IFERROR(VLOOKUP(A95,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33296,7 +33296,7 @@
         <v>160</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E96" s="3">
         <f>IFERROR(VLOOKUP(A96,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33314,7 +33314,7 @@
         <v>522</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E97" s="3">
         <f>IFERROR(VLOOKUP(A97,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33332,7 +33332,7 @@
         <v>675</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E98" s="3">
         <f>IFERROR(VLOOKUP(A98,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33350,7 +33350,7 @@
         <v>564</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E99" s="3">
         <f>IFERROR(VLOOKUP(A99,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33368,7 +33368,7 @@
         <v>567</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E100" s="3">
         <f>IFERROR(VLOOKUP(A100,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33380,13 +33380,13 @@
         <v>2104</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>1506</v>
+        <v>1500</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>1620</v>
+        <v>1614</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E101" s="3">
         <f>IFERROR(VLOOKUP(A101,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33404,7 +33404,7 @@
         <v>410</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E102" s="3">
         <f>IFERROR(VLOOKUP(A102,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33422,7 +33422,7 @@
         <v>568</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E103" s="3">
         <f>IFERROR(VLOOKUP(A103,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33440,7 +33440,7 @@
         <v>515</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E104" s="3">
         <f>IFERROR(VLOOKUP(A104,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33458,7 +33458,7 @@
         <v>533</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E105" s="3">
         <f>IFERROR(VLOOKUP(A105,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33476,7 +33476,7 @@
         <v>164</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E106" s="3">
         <f>IFERROR(VLOOKUP(A106,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33494,7 +33494,7 @@
         <v>570</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E107" s="3">
         <f>IFERROR(VLOOKUP(A107,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33506,13 +33506,13 @@
         <v>2527</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>1528</v>
+        <v>1522</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>1642</v>
+        <v>1636</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E108" s="3">
         <f>IFERROR(VLOOKUP(A108,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33530,7 +33530,7 @@
         <v>220</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E109" s="3">
         <f>IFERROR(VLOOKUP(A109,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33548,7 +33548,7 @@
         <v>513</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E110" s="3">
         <f>IFERROR(VLOOKUP(A110,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33566,7 +33566,7 @@
         <v>732</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E111" s="3">
         <f>IFERROR(VLOOKUP(A111,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33578,13 +33578,13 @@
         <v>2714</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>1560</v>
+        <v>1554</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>1674</v>
+        <v>1668</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E112" s="3">
         <f>IFERROR(VLOOKUP(A112,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33602,7 +33602,7 @@
         <v>519</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E113" s="3">
         <f>IFERROR(VLOOKUP(A113,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33620,7 +33620,7 @@
         <v>155</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E114" s="3">
         <f>IFERROR(VLOOKUP(A114,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33638,7 +33638,7 @@
         <v>505</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E115" s="3">
         <f>IFERROR(VLOOKUP(A115,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33656,7 +33656,7 @@
         <v>547</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E116" s="3">
         <f>IFERROR(VLOOKUP(A116,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33674,7 +33674,7 @@
         <v>729</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E117" s="3">
         <f>IFERROR(VLOOKUP(A117,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33692,7 +33692,7 @@
         <v>514</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E118" s="3">
         <f>IFERROR(VLOOKUP(A118,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33710,7 +33710,7 @@
         <v>544</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E119" s="3">
         <f>IFERROR(VLOOKUP(A119,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33728,7 +33728,7 @@
         <v>730</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E120" s="3">
         <f>IFERROR(VLOOKUP(A120,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33746,7 +33746,7 @@
         <v>534</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E121" s="3">
         <f>IFERROR(VLOOKUP(A121,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33764,7 +33764,7 @@
         <v>560</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E122" s="3">
         <f>IFERROR(VLOOKUP(A122,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33776,13 +33776,13 @@
         <v>4259</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>1535</v>
+        <v>1529</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>1649</v>
+        <v>1643</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E123" s="3">
         <f>IFERROR(VLOOKUP(A123,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33800,7 +33800,7 @@
         <v>546</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E124" s="3">
         <f>IFERROR(VLOOKUP(A124,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33812,13 +33812,13 @@
         <v>2490</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>1540</v>
+        <v>1534</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>1654</v>
+        <v>1648</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E125" s="3">
         <f>IFERROR(VLOOKUP(A125,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33836,7 +33836,7 @@
         <v>531</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E126" s="3">
         <f>IFERROR(VLOOKUP(A126,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33854,7 +33854,7 @@
         <v>532</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E127" s="3">
         <f>IFERROR(VLOOKUP(A127,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33872,7 +33872,7 @@
         <v>569</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E128" s="3">
         <f>IFERROR(VLOOKUP(A128,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33890,7 +33890,7 @@
         <v>510</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E129" s="3">
         <f>IFERROR(VLOOKUP(A129,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33908,7 +33908,7 @@
         <v>548</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E130" s="3">
         <f>IFERROR(VLOOKUP(A130,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33920,13 +33920,13 @@
         <v>2503</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>1514</v>
+        <v>1508</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>1628</v>
+        <v>1622</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E131" s="3">
         <f>IFERROR(VLOOKUP(A131,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33938,13 +33938,13 @@
         <v>2488</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>1519</v>
+        <v>1513</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>1633</v>
+        <v>1627</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E132" s="3">
         <f>IFERROR(VLOOKUP(A132,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33962,7 +33962,7 @@
         <v>562</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E133" s="3">
         <f>IFERROR(VLOOKUP(A133,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33974,13 +33974,13 @@
         <v>4251</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>1498</v>
+        <v>1492</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>1612</v>
+        <v>1606</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E134" s="3">
         <f>IFERROR(VLOOKUP(A134,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33992,13 +33992,13 @@
         <v>2497</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>1509</v>
+        <v>1503</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>1623</v>
+        <v>1617</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E135" s="3">
         <f>IFERROR(VLOOKUP(A135,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34010,13 +34010,13 @@
         <v>2510</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>1520</v>
+        <v>1514</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>1634</v>
+        <v>1628</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E136" s="3">
         <f>IFERROR(VLOOKUP(A136,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34028,13 +34028,13 @@
         <v>2499</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>1517</v>
+        <v>1511</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>1631</v>
+        <v>1625</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E137" s="3">
         <f>IFERROR(VLOOKUP(A137,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34046,13 +34046,13 @@
         <v>2525</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>1538</v>
+        <v>1532</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>1652</v>
+        <v>1646</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E138" s="3">
         <f>IFERROR(VLOOKUP(A138,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34064,13 +34064,13 @@
         <v>2526</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>1525</v>
+        <v>1519</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>1675</v>
+        <v>1669</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E139" s="3">
         <f>IFERROR(VLOOKUP(A139,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34082,13 +34082,13 @@
         <v>2484</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>1501</v>
+        <v>1495</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>1615</v>
+        <v>1609</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E140" s="3">
         <f>IFERROR(VLOOKUP(A140,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34100,13 +34100,13 @@
         <v>2507</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>1507</v>
+        <v>1501</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>1621</v>
+        <v>1615</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E141" s="3">
         <f>IFERROR(VLOOKUP(A141,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34118,13 +34118,13 @@
         <v>2677</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>1497</v>
+        <v>1491</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>1611</v>
+        <v>1605</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E142" s="3">
         <f>IFERROR(VLOOKUP(A142,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34136,13 +34136,13 @@
         <v>4215</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>1502</v>
+        <v>1496</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>1616</v>
+        <v>1610</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E143" s="3">
         <f>IFERROR(VLOOKUP(A143,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34154,13 +34154,13 @@
         <v>4303</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>1532</v>
+        <v>1526</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>1646</v>
+        <v>1640</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E144" s="3">
         <f>IFERROR(VLOOKUP(A144,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34172,13 +34172,13 @@
         <v>4304</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>1542</v>
+        <v>1536</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>1656</v>
+        <v>1650</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E145" s="3">
         <f>IFERROR(VLOOKUP(A145,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34190,13 +34190,13 @@
         <v>2705</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>1574</v>
+        <v>1568</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>1689</v>
+        <v>1683</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E146" s="3">
         <f>IFERROR(VLOOKUP(A146,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34214,7 +34214,7 @@
         <v>156</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E147" s="3">
         <f>IFERROR(VLOOKUP(A147,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34232,7 +34232,7 @@
         <v>529</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E148" s="3">
         <f>IFERROR(VLOOKUP(A148,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34244,13 +34244,13 @@
         <v>2524</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>1523</v>
+        <v>1517</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E149" s="3">
         <f>IFERROR(VLOOKUP(A149,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34268,7 +34268,7 @@
         <v>530</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E150" s="3">
         <f>IFERROR(VLOOKUP(A150,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34286,7 +34286,7 @@
         <v>545</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E151" s="3">
         <f>IFERROR(VLOOKUP(A151,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34298,13 +34298,13 @@
         <v>2491</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>1510</v>
+        <v>1504</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>1624</v>
+        <v>1618</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E152" s="3">
         <f>IFERROR(VLOOKUP(A152,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34316,13 +34316,13 @@
         <v>2512</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>1533</v>
+        <v>1527</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>1647</v>
+        <v>1641</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E153" s="3">
         <f>IFERROR(VLOOKUP(A153,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34340,7 +34340,7 @@
         <v>151</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E154" s="3">
         <f>IFERROR(VLOOKUP(A154,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34358,7 +34358,7 @@
         <v>152</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E155" s="3">
         <f>IFERROR(VLOOKUP(A155,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34376,7 +34376,7 @@
         <v>561</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E156" s="3">
         <f>IFERROR(VLOOKUP(A156,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34394,7 +34394,7 @@
         <v>563</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E157" s="3">
         <f>IFERROR(VLOOKUP(A157,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34412,7 +34412,7 @@
         <v>718</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E158" s="3">
         <f>IFERROR(VLOOKUP(A158,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34424,13 +34424,13 @@
         <v>4213</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>1488</v>
+        <v>1482</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>1602</v>
+        <v>1596</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E159" s="3">
         <f>IFERROR(VLOOKUP(A159,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34442,13 +34442,13 @@
         <v>2704</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>1503</v>
+        <v>1497</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>1617</v>
+        <v>1611</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E160" s="3">
         <f>IFERROR(VLOOKUP(A160,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34460,13 +34460,13 @@
         <v>2492</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>1521</v>
+        <v>1515</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>1635</v>
+        <v>1629</v>
       </c>
       <c r="D161" s="6" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E161" s="3">
         <f>IFERROR(VLOOKUP(A161,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34478,13 +34478,13 @@
         <v>2530</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>1522</v>
+        <v>1516</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>1636</v>
+        <v>1630</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E162" s="3">
         <f>IFERROR(VLOOKUP(A162,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34496,13 +34496,13 @@
         <v>2487</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>1541</v>
+        <v>1535</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>1655</v>
+        <v>1649</v>
       </c>
       <c r="D163" s="6" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E163" s="3">
         <f>IFERROR(VLOOKUP(A163,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34514,13 +34514,13 @@
         <v>2577</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>1550</v>
+        <v>1544</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>1664</v>
+        <v>1658</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E164" s="3">
         <f>IFERROR(VLOOKUP(A164,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34532,13 +34532,13 @@
         <v>2707</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>1551</v>
+        <v>1545</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>1665</v>
+        <v>1659</v>
       </c>
       <c r="D165" s="6" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E165" s="3">
         <f>IFERROR(VLOOKUP(A165,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34550,13 +34550,13 @@
         <v>2569</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>1552</v>
+        <v>1546</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>1666</v>
+        <v>1660</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E166" s="3">
         <f>IFERROR(VLOOKUP(A166,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34568,13 +34568,13 @@
         <v>2706</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>1555</v>
+        <v>1549</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>1669</v>
+        <v>1663</v>
       </c>
       <c r="D167" s="6" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E167" s="3">
         <f>IFERROR(VLOOKUP(A167,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34586,13 +34586,13 @@
         <v>4214</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>1568</v>
+        <v>1562</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>1683</v>
+        <v>1677</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E168" s="3">
         <f>IFERROR(VLOOKUP(A168,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34604,13 +34604,13 @@
         <v>2485</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>1545</v>
+        <v>1539</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>1659</v>
+        <v>1653</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E169" s="3">
         <f>IFERROR(VLOOKUP(A169,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34622,13 +34622,13 @@
         <v>2514</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>1546</v>
+        <v>1540</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>1660</v>
+        <v>1654</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E170" s="3">
         <f>IFERROR(VLOOKUP(A170,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34640,13 +34640,13 @@
         <v>2493</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>1558</v>
+        <v>1552</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>1672</v>
+        <v>1666</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E171" s="3">
         <f>IFERROR(VLOOKUP(A171,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34658,13 +34658,13 @@
         <v>2515</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>1590</v>
+        <v>1584</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>1705</v>
+        <v>1699</v>
       </c>
       <c r="D172" s="6" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E172" s="3">
         <f>IFERROR(VLOOKUP(A172,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34682,7 +34682,7 @@
         <v>499</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E173" s="3">
         <f>IFERROR(VLOOKUP(A173,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34694,13 +34694,13 @@
         <v>4261</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>1490</v>
+        <v>1484</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>1604</v>
+        <v>1598</v>
       </c>
       <c r="D174" s="6" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E174" s="3">
         <f>IFERROR(VLOOKUP(A174,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34712,13 +34712,13 @@
         <v>2521</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>1543</v>
+        <v>1537</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>1657</v>
+        <v>1651</v>
       </c>
       <c r="D175" s="6" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E175" s="3">
         <f>IFERROR(VLOOKUP(A175,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34730,13 +34730,13 @@
         <v>2506</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>1557</v>
+        <v>1551</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>1671</v>
+        <v>1665</v>
       </c>
       <c r="D176" s="6" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E176" s="3">
         <f>IFERROR(VLOOKUP(A176,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34748,13 +34748,13 @@
         <v>2722</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>1559</v>
+        <v>1553</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>1673</v>
+        <v>1667</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E177" s="3">
         <f>IFERROR(VLOOKUP(A177,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34772,7 +34772,7 @@
         <v>157</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E178" s="3">
         <f>IFERROR(VLOOKUP(A178,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34790,7 +34790,7 @@
         <v>559</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E179" s="3">
         <f>IFERROR(VLOOKUP(A179,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34808,7 +34808,7 @@
         <v>573</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E180" s="3">
         <f>IFERROR(VLOOKUP(A180,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34826,7 +34826,7 @@
         <v>576</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E181" s="3">
         <f>IFERROR(VLOOKUP(A181,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34838,13 +34838,13 @@
         <v>2670</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>1544</v>
+        <v>1538</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>1658</v>
+        <v>1652</v>
       </c>
       <c r="D182" s="6" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E182" s="3">
         <f>IFERROR(VLOOKUP(A182,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34856,13 +34856,13 @@
         <v>2513</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>1554</v>
+        <v>1548</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>1668</v>
+        <v>1662</v>
       </c>
       <c r="D183" s="6" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E183" s="3">
         <f>IFERROR(VLOOKUP(A183,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34874,13 +34874,13 @@
         <v>2551</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>1561</v>
+        <v>1555</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>1676</v>
+        <v>1670</v>
       </c>
       <c r="D184" s="6" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E184" s="3">
         <f>IFERROR(VLOOKUP(A184,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34892,13 +34892,13 @@
         <v>2561</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>1562</v>
+        <v>1556</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>1677</v>
+        <v>1671</v>
       </c>
       <c r="D185" s="6" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E185" s="3">
         <f>IFERROR(VLOOKUP(A185,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34910,13 +34910,13 @@
         <v>2505</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>1564</v>
+        <v>1558</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>1679</v>
+        <v>1673</v>
       </c>
       <c r="D186" s="6" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E186" s="3">
         <f>IFERROR(VLOOKUP(A186,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34928,13 +34928,13 @@
         <v>2559</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>1565</v>
+        <v>1559</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>1680</v>
+        <v>1674</v>
       </c>
       <c r="D187" s="6" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E187" s="3">
         <f>IFERROR(VLOOKUP(A187,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34946,13 +34946,13 @@
         <v>2563</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>1566</v>
+        <v>1560</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>1681</v>
+        <v>1675</v>
       </c>
       <c r="D188" s="6" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E188" s="3">
         <f>IFERROR(VLOOKUP(A188,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34964,13 +34964,13 @@
         <v>2556</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>1567</v>
+        <v>1561</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>1682</v>
+        <v>1676</v>
       </c>
       <c r="D189" s="6" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E189" s="3">
         <f>IFERROR(VLOOKUP(A189,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34982,13 +34982,13 @@
         <v>2562</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>1578</v>
+        <v>1572</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>1693</v>
+        <v>1687</v>
       </c>
       <c r="D190" s="6" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E190" s="3">
         <f>IFERROR(VLOOKUP(A190,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35006,7 +35006,7 @@
         <v>162</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E191" s="3">
         <f>IFERROR(VLOOKUP(A191,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35024,7 +35024,7 @@
         <v>498</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E192" s="3">
         <f>IFERROR(VLOOKUP(A192,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35042,7 +35042,7 @@
         <v>502</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E193" s="3">
         <f>IFERROR(VLOOKUP(A193,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35060,7 +35060,7 @@
         <v>542</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E194" s="3">
         <f>IFERROR(VLOOKUP(A194,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35078,7 +35078,7 @@
         <v>677</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E195" s="3">
         <f>IFERROR(VLOOKUP(A195,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35096,7 +35096,7 @@
         <v>703</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E196" s="3">
         <f>IFERROR(VLOOKUP(A196,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35114,7 +35114,7 @@
         <v>735</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E197" s="3">
         <f>IFERROR(VLOOKUP(A197,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35126,13 +35126,13 @@
         <v>2508</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>1524</v>
+        <v>1518</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>1638</v>
+        <v>1632</v>
       </c>
       <c r="D198" s="6" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E198" s="3">
         <f>IFERROR(VLOOKUP(A198,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35144,13 +35144,13 @@
         <v>2531</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>1529</v>
+        <v>1523</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>1643</v>
+        <v>1637</v>
       </c>
       <c r="D199" s="6" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E199" s="3">
         <f>IFERROR(VLOOKUP(A199,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35162,13 +35162,13 @@
         <v>2518</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>1556</v>
+        <v>1550</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>1670</v>
+        <v>1664</v>
       </c>
       <c r="D200" s="6" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E200" s="3">
         <f>IFERROR(VLOOKUP(A200,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35180,13 +35180,13 @@
         <v>2516</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>1569</v>
+        <v>1563</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>1684</v>
+        <v>1678</v>
       </c>
       <c r="D201" s="6" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E201" s="3">
         <f>IFERROR(VLOOKUP(A201,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35198,13 +35198,13 @@
         <v>2565</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>1570</v>
+        <v>1564</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>1685</v>
+        <v>1679</v>
       </c>
       <c r="D202" s="6" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E202" s="3">
         <f>IFERROR(VLOOKUP(A202,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35216,13 +35216,13 @@
         <v>2574</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>1571</v>
+        <v>1565</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>1686</v>
+        <v>1680</v>
       </c>
       <c r="D203" s="6" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E203" s="3">
         <f>IFERROR(VLOOKUP(A203,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35234,13 +35234,13 @@
         <v>2509</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>1572</v>
+        <v>1566</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>1687</v>
+        <v>1681</v>
       </c>
       <c r="D204" s="6" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E204" s="3">
         <f>IFERROR(VLOOKUP(A204,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35252,13 +35252,13 @@
         <v>2517</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>1573</v>
+        <v>1567</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>1688</v>
+        <v>1682</v>
       </c>
       <c r="D205" s="6" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E205" s="3">
         <f>IFERROR(VLOOKUP(A205,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35270,13 +35270,13 @@
         <v>2533</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>1575</v>
+        <v>1569</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>1690</v>
+        <v>1684</v>
       </c>
       <c r="D206" s="6" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E206" s="3">
         <f>IFERROR(VLOOKUP(A206,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35288,13 +35288,13 @@
         <v>2496</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>1577</v>
+        <v>1571</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>1692</v>
+        <v>1686</v>
       </c>
       <c r="D207" s="6" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E207" s="3">
         <f>IFERROR(VLOOKUP(A207,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35306,13 +35306,13 @@
         <v>2578</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>1587</v>
+        <v>1581</v>
       </c>
       <c r="C208" s="4" t="s">
+        <v>1696</v>
+      </c>
+      <c r="D208" s="6" t="s">
         <v>1702</v>
-      </c>
-      <c r="D208" s="6" t="s">
-        <v>1474</v>
       </c>
       <c r="E208" s="3">
         <f>IFERROR(VLOOKUP(A208,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35330,7 +35330,7 @@
         <v>158</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E209" s="3">
         <f>IFERROR(VLOOKUP(A209,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35348,7 +35348,7 @@
         <v>163</v>
       </c>
       <c r="D210" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E210" s="3">
         <f>IFERROR(VLOOKUP(A210,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35366,7 +35366,7 @@
         <v>167</v>
       </c>
       <c r="D211" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E211" s="3">
         <f>IFERROR(VLOOKUP(A211,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35384,7 +35384,7 @@
         <v>168</v>
       </c>
       <c r="D212" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E212" s="3">
         <f>IFERROR(VLOOKUP(A212,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35402,7 +35402,7 @@
         <v>169</v>
       </c>
       <c r="D213" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E213" s="3">
         <f>IFERROR(VLOOKUP(A213,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35420,7 +35420,7 @@
         <v>491</v>
       </c>
       <c r="D214" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E214" s="3">
         <f>IFERROR(VLOOKUP(A214,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35438,7 +35438,7 @@
         <v>492</v>
       </c>
       <c r="D215" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E215" s="3">
         <f>IFERROR(VLOOKUP(A215,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35456,7 +35456,7 @@
         <v>493</v>
       </c>
       <c r="D216" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E216" s="3">
         <f>IFERROR(VLOOKUP(A216,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35474,7 +35474,7 @@
         <v>494</v>
       </c>
       <c r="D217" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E217" s="3">
         <f>IFERROR(VLOOKUP(A217,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35492,7 +35492,7 @@
         <v>503</v>
       </c>
       <c r="D218" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E218" s="3">
         <f>IFERROR(VLOOKUP(A218,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35510,7 +35510,7 @@
         <v>528</v>
       </c>
       <c r="D219" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E219" s="3">
         <f>IFERROR(VLOOKUP(A219,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35528,7 +35528,7 @@
         <v>537</v>
       </c>
       <c r="D220" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E220" s="3">
         <f>IFERROR(VLOOKUP(A220,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35546,7 +35546,7 @@
         <v>538</v>
       </c>
       <c r="D221" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E221" s="3">
         <f>IFERROR(VLOOKUP(A221,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35564,7 +35564,7 @@
         <v>539</v>
       </c>
       <c r="D222" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E222" s="3">
         <f>IFERROR(VLOOKUP(A222,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35582,7 +35582,7 @@
         <v>541</v>
       </c>
       <c r="D223" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E223" s="3">
         <f>IFERROR(VLOOKUP(A223,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35600,7 +35600,7 @@
         <v>543</v>
       </c>
       <c r="D224" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E224" s="3">
         <f>IFERROR(VLOOKUP(A224,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35618,7 +35618,7 @@
         <v>552</v>
       </c>
       <c r="D225" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E225" s="3">
         <f>IFERROR(VLOOKUP(A225,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35636,7 +35636,7 @@
         <v>553</v>
       </c>
       <c r="D226" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E226" s="3">
         <f>IFERROR(VLOOKUP(A226,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35654,7 +35654,7 @@
         <v>554</v>
       </c>
       <c r="D227" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E227" s="3">
         <f>IFERROR(VLOOKUP(A227,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35672,7 +35672,7 @@
         <v>555</v>
       </c>
       <c r="D228" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E228" s="3">
         <f>IFERROR(VLOOKUP(A228,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35690,7 +35690,7 @@
         <v>556</v>
       </c>
       <c r="D229" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E229" s="3">
         <f>IFERROR(VLOOKUP(A229,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35708,7 +35708,7 @@
         <v>557</v>
       </c>
       <c r="D230" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E230" s="3">
         <f>IFERROR(VLOOKUP(A230,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35726,7 +35726,7 @@
         <v>558</v>
       </c>
       <c r="D231" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E231" s="3">
         <f>IFERROR(VLOOKUP(A231,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35744,7 +35744,7 @@
         <v>593</v>
       </c>
       <c r="D232" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E232" s="3">
         <f>IFERROR(VLOOKUP(A232,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35762,7 +35762,7 @@
         <v>595</v>
       </c>
       <c r="D233" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E233" s="3">
         <f>IFERROR(VLOOKUP(A233,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35780,7 +35780,7 @@
         <v>597</v>
       </c>
       <c r="D234" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E234" s="3">
         <f>IFERROR(VLOOKUP(A234,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35798,7 +35798,7 @@
         <v>598</v>
       </c>
       <c r="D235" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E235" s="3">
         <f>IFERROR(VLOOKUP(A235,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35816,7 +35816,7 @@
         <v>599</v>
       </c>
       <c r="D236" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E236" s="3">
         <f>IFERROR(VLOOKUP(A236,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35834,7 +35834,7 @@
         <v>600</v>
       </c>
       <c r="D237" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E237" s="3">
         <f>IFERROR(VLOOKUP(A237,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35852,7 +35852,7 @@
         <v>601</v>
       </c>
       <c r="D238" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E238" s="3">
         <f>IFERROR(VLOOKUP(A238,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35870,7 +35870,7 @@
         <v>602</v>
       </c>
       <c r="D239" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E239" s="3">
         <f>IFERROR(VLOOKUP(A239,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35888,7 +35888,7 @@
         <v>604</v>
       </c>
       <c r="D240" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E240" s="3">
         <f>IFERROR(VLOOKUP(A240,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35906,7 +35906,7 @@
         <v>606</v>
       </c>
       <c r="D241" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E241" s="3">
         <f>IFERROR(VLOOKUP(A241,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35924,7 +35924,7 @@
         <v>607</v>
       </c>
       <c r="D242" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E242" s="3">
         <f>IFERROR(VLOOKUP(A242,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35942,7 +35942,7 @@
         <v>609</v>
       </c>
       <c r="D243" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E243" s="3">
         <f>IFERROR(VLOOKUP(A243,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35960,7 +35960,7 @@
         <v>610</v>
       </c>
       <c r="D244" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E244" s="3">
         <f>IFERROR(VLOOKUP(A244,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35978,7 +35978,7 @@
         <v>611</v>
       </c>
       <c r="D245" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E245" s="3">
         <f>IFERROR(VLOOKUP(A245,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35996,7 +35996,7 @@
         <v>616</v>
       </c>
       <c r="D246" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E246" s="3">
         <f>IFERROR(VLOOKUP(A246,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36014,7 +36014,7 @@
         <v>619</v>
       </c>
       <c r="D247" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E247" s="3">
         <f>IFERROR(VLOOKUP(A247,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36032,7 +36032,7 @@
         <v>621</v>
       </c>
       <c r="D248" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E248" s="3">
         <f>IFERROR(VLOOKUP(A248,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36050,7 +36050,7 @@
         <v>622</v>
       </c>
       <c r="D249" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E249" s="3">
         <f>IFERROR(VLOOKUP(A249,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36068,7 +36068,7 @@
         <v>623</v>
       </c>
       <c r="D250" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E250" s="3">
         <f>IFERROR(VLOOKUP(A250,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36086,7 +36086,7 @@
         <v>624</v>
       </c>
       <c r="D251" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E251" s="3">
         <f>IFERROR(VLOOKUP(A251,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36104,7 +36104,7 @@
         <v>625</v>
       </c>
       <c r="D252" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E252" s="3">
         <f>IFERROR(VLOOKUP(A252,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36122,7 +36122,7 @@
         <v>626</v>
       </c>
       <c r="D253" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E253" s="3">
         <f>IFERROR(VLOOKUP(A253,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36140,7 +36140,7 @@
         <v>627</v>
       </c>
       <c r="D254" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E254" s="3">
         <f>IFERROR(VLOOKUP(A254,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36158,7 +36158,7 @@
         <v>630</v>
       </c>
       <c r="D255" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E255" s="3">
         <f>IFERROR(VLOOKUP(A255,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36176,7 +36176,7 @@
         <v>632</v>
       </c>
       <c r="D256" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E256" s="3">
         <f>IFERROR(VLOOKUP(A256,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36194,7 +36194,7 @@
         <v>633</v>
       </c>
       <c r="D257" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E257" s="3">
         <f>IFERROR(VLOOKUP(A257,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36212,7 +36212,7 @@
         <v>634</v>
       </c>
       <c r="D258" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E258" s="3">
         <f>IFERROR(VLOOKUP(A258,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36230,7 +36230,7 @@
         <v>636</v>
       </c>
       <c r="D259" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E259" s="3">
         <f>IFERROR(VLOOKUP(A259,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36248,7 +36248,7 @@
         <v>637</v>
       </c>
       <c r="D260" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E260" s="3">
         <f>IFERROR(VLOOKUP(A260,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36266,7 +36266,7 @@
         <v>628</v>
       </c>
       <c r="D261" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E261" s="3">
         <f>IFERROR(VLOOKUP(A261,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36284,7 +36284,7 @@
         <v>638</v>
       </c>
       <c r="D262" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E262" s="3">
         <f>IFERROR(VLOOKUP(A262,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36302,7 +36302,7 @@
         <v>639</v>
       </c>
       <c r="D263" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E263" s="3">
         <f>IFERROR(VLOOKUP(A263,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36320,7 +36320,7 @@
         <v>640</v>
       </c>
       <c r="D264" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E264" s="3">
         <f>IFERROR(VLOOKUP(A264,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36338,7 +36338,7 @@
         <v>641</v>
       </c>
       <c r="D265" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E265" s="3">
         <f>IFERROR(VLOOKUP(A265,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36356,7 +36356,7 @@
         <v>642</v>
       </c>
       <c r="D266" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E266" s="3">
         <f>IFERROR(VLOOKUP(A266,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36374,7 +36374,7 @@
         <v>647</v>
       </c>
       <c r="D267" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E267" s="3">
         <f>IFERROR(VLOOKUP(A267,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36392,7 +36392,7 @@
         <v>649</v>
       </c>
       <c r="D268" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E268" s="3">
         <f>IFERROR(VLOOKUP(A268,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36410,7 +36410,7 @@
         <v>650</v>
       </c>
       <c r="D269" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E269" s="3">
         <f>IFERROR(VLOOKUP(A269,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36428,7 +36428,7 @@
         <v>651</v>
       </c>
       <c r="D270" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E270" s="3">
         <f>IFERROR(VLOOKUP(A270,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36446,7 +36446,7 @@
         <v>657</v>
       </c>
       <c r="D271" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E271" s="3">
         <f>IFERROR(VLOOKUP(A271,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36464,7 +36464,7 @@
         <v>659</v>
       </c>
       <c r="D272" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E272" s="3">
         <f>IFERROR(VLOOKUP(A272,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36482,7 +36482,7 @@
         <v>660</v>
       </c>
       <c r="D273" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E273" s="3">
         <f>IFERROR(VLOOKUP(A273,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36500,7 +36500,7 @@
         <v>661</v>
       </c>
       <c r="D274" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E274" s="3">
         <f>IFERROR(VLOOKUP(A274,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36518,7 +36518,7 @@
         <v>662</v>
       </c>
       <c r="D275" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E275" s="3">
         <f>IFERROR(VLOOKUP(A275,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36536,7 +36536,7 @@
         <v>672</v>
       </c>
       <c r="D276" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E276" s="3">
         <f>IFERROR(VLOOKUP(A276,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36554,7 +36554,7 @@
         <v>673</v>
       </c>
       <c r="D277" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E277" s="3">
         <f>IFERROR(VLOOKUP(A277,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36572,7 +36572,7 @@
         <v>676</v>
       </c>
       <c r="D278" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E278" s="3">
         <f>IFERROR(VLOOKUP(A278,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36590,7 +36590,7 @@
         <v>679</v>
       </c>
       <c r="D279" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E279" s="3">
         <f>IFERROR(VLOOKUP(A279,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36608,7 +36608,7 @@
         <v>683</v>
       </c>
       <c r="D280" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E280" s="3">
         <f>IFERROR(VLOOKUP(A280,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36626,7 +36626,7 @@
         <v>684</v>
       </c>
       <c r="D281" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E281" s="3">
         <f>IFERROR(VLOOKUP(A281,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36644,7 +36644,7 @@
         <v>687</v>
       </c>
       <c r="D282" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E282" s="3">
         <f>IFERROR(VLOOKUP(A282,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36662,7 +36662,7 @@
         <v>691</v>
       </c>
       <c r="D283" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E283" s="3">
         <f>IFERROR(VLOOKUP(A283,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36680,7 +36680,7 @@
         <v>694</v>
       </c>
       <c r="D284" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E284" s="3">
         <f>IFERROR(VLOOKUP(A284,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36698,7 +36698,7 @@
         <v>695</v>
       </c>
       <c r="D285" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E285" s="3">
         <f>IFERROR(VLOOKUP(A285,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36716,7 +36716,7 @@
         <v>697</v>
       </c>
       <c r="D286" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E286" s="3">
         <f>IFERROR(VLOOKUP(A286,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36734,7 +36734,7 @@
         <v>700</v>
       </c>
       <c r="D287" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E287" s="3">
         <f>IFERROR(VLOOKUP(A287,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36752,7 +36752,7 @@
         <v>701</v>
       </c>
       <c r="D288" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E288" s="3">
         <f>IFERROR(VLOOKUP(A288,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36770,7 +36770,7 @@
         <v>709</v>
       </c>
       <c r="D289" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E289" s="3">
         <f>IFERROR(VLOOKUP(A289,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36788,7 +36788,7 @@
         <v>710</v>
       </c>
       <c r="D290" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E290" s="3">
         <f>IFERROR(VLOOKUP(A290,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36806,7 +36806,7 @@
         <v>712</v>
       </c>
       <c r="D291" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E291" s="3">
         <f>IFERROR(VLOOKUP(A291,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36824,7 +36824,7 @@
         <v>719</v>
       </c>
       <c r="D292" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E292" s="3">
         <f>IFERROR(VLOOKUP(A292,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36842,7 +36842,7 @@
         <v>720</v>
       </c>
       <c r="D293" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E293" s="3">
         <f>IFERROR(VLOOKUP(A293,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36860,7 +36860,7 @@
         <v>721</v>
       </c>
       <c r="D294" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E294" s="3">
         <f>IFERROR(VLOOKUP(A294,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36878,7 +36878,7 @@
         <v>722</v>
       </c>
       <c r="D295" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E295" s="3">
         <f>IFERROR(VLOOKUP(A295,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36896,7 +36896,7 @@
         <v>723</v>
       </c>
       <c r="D296" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E296" s="3">
         <f>IFERROR(VLOOKUP(A296,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36914,7 +36914,7 @@
         <v>724</v>
       </c>
       <c r="D297" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E297" s="3">
         <f>IFERROR(VLOOKUP(A297,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36932,7 +36932,7 @@
         <v>726</v>
       </c>
       <c r="D298" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E298" s="3">
         <f>IFERROR(VLOOKUP(A298,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36944,13 +36944,13 @@
         <v>2511</v>
       </c>
       <c r="B299" s="6" t="s">
-        <v>1539</v>
+        <v>1533</v>
       </c>
       <c r="C299" s="4" t="s">
-        <v>1653</v>
+        <v>1647</v>
       </c>
       <c r="D299" s="6" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E299" s="3">
         <f>IFERROR(VLOOKUP(A299,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36962,13 +36962,13 @@
         <v>2579</v>
       </c>
       <c r="B300" s="6" t="s">
-        <v>1580</v>
+        <v>1574</v>
       </c>
       <c r="C300" s="4" t="s">
-        <v>1695</v>
+        <v>1689</v>
       </c>
       <c r="D300" s="6" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E300" s="3">
         <f>IFERROR(VLOOKUP(A300,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36980,13 +36980,13 @@
         <v>2576</v>
       </c>
       <c r="B301" s="6" t="s">
-        <v>1581</v>
+        <v>1575</v>
       </c>
       <c r="C301" s="4" t="s">
-        <v>1696</v>
+        <v>1690</v>
       </c>
       <c r="D301" s="6" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E301" s="3">
         <f>IFERROR(VLOOKUP(A301,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36998,13 +36998,13 @@
         <v>2534</v>
       </c>
       <c r="B302" s="6" t="s">
-        <v>1582</v>
+        <v>1576</v>
       </c>
       <c r="C302" s="4" t="s">
-        <v>1697</v>
+        <v>1691</v>
       </c>
       <c r="D302" s="6" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E302" s="3">
         <f>IFERROR(VLOOKUP(A302,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37016,13 +37016,13 @@
         <v>2413</v>
       </c>
       <c r="B303" s="6" t="s">
-        <v>1583</v>
+        <v>1577</v>
       </c>
       <c r="C303" s="4" t="s">
-        <v>1698</v>
+        <v>1692</v>
       </c>
       <c r="D303" s="6" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E303" s="3">
         <f>IFERROR(VLOOKUP(A303,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37034,13 +37034,13 @@
         <v>2528</v>
       </c>
       <c r="B304" s="6" t="s">
-        <v>1584</v>
+        <v>1578</v>
       </c>
       <c r="C304" s="4" t="s">
-        <v>1699</v>
+        <v>1693</v>
       </c>
       <c r="D304" s="6" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E304" s="3">
         <f>IFERROR(VLOOKUP(A304,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37058,7 +37058,7 @@
         <v>143</v>
       </c>
       <c r="D305" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E305" s="3">
         <f>IFERROR(VLOOKUP(A305,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37076,7 +37076,7 @@
         <v>153</v>
       </c>
       <c r="D306" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E306" s="3">
         <f>IFERROR(VLOOKUP(A306,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37094,7 +37094,7 @@
         <v>154</v>
       </c>
       <c r="D307" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E307" s="3">
         <f>IFERROR(VLOOKUP(A307,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37112,7 +37112,7 @@
         <v>161</v>
       </c>
       <c r="D308" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E308" s="3">
         <f>IFERROR(VLOOKUP(A308,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37130,7 +37130,7 @@
         <v>165</v>
       </c>
       <c r="D309" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E309" s="3">
         <f>IFERROR(VLOOKUP(A309,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37148,7 +37148,7 @@
         <v>218</v>
       </c>
       <c r="D310" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E310" s="3">
         <f>IFERROR(VLOOKUP(A310,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37166,7 +37166,7 @@
         <v>219</v>
       </c>
       <c r="D311" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E311" s="3">
         <f>IFERROR(VLOOKUP(A311,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37184,7 +37184,7 @@
         <v>246</v>
       </c>
       <c r="D312" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E312" s="3">
         <f>IFERROR(VLOOKUP(A312,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37202,7 +37202,7 @@
         <v>247</v>
       </c>
       <c r="D313" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E313" s="3">
         <f>IFERROR(VLOOKUP(A313,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37220,7 +37220,7 @@
         <v>475</v>
       </c>
       <c r="D314" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E314" s="3">
         <f>IFERROR(VLOOKUP(A314,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37238,7 +37238,7 @@
         <v>483</v>
       </c>
       <c r="D315" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E315" s="3">
         <f>IFERROR(VLOOKUP(A315,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37256,7 +37256,7 @@
         <v>490</v>
       </c>
       <c r="D316" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E316" s="3">
         <f>IFERROR(VLOOKUP(A316,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37274,7 +37274,7 @@
         <v>495</v>
       </c>
       <c r="D317" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E317" s="3">
         <f>IFERROR(VLOOKUP(A317,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37292,7 +37292,7 @@
         <v>496</v>
       </c>
       <c r="D318" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E318" s="3">
         <f>IFERROR(VLOOKUP(A318,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37310,7 +37310,7 @@
         <v>497</v>
       </c>
       <c r="D319" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E319" s="3">
         <f>IFERROR(VLOOKUP(A319,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37328,7 +37328,7 @@
         <v>500</v>
       </c>
       <c r="D320" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E320" s="3">
         <f>IFERROR(VLOOKUP(A320,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37346,7 +37346,7 @@
         <v>501</v>
       </c>
       <c r="D321" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E321" s="3">
         <f>IFERROR(VLOOKUP(A321,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37364,7 +37364,7 @@
         <v>504</v>
       </c>
       <c r="D322" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E322" s="3">
         <f>IFERROR(VLOOKUP(A322,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37382,7 +37382,7 @@
         <v>509</v>
       </c>
       <c r="D323" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E323" s="3">
         <f>IFERROR(VLOOKUP(A323,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37400,7 +37400,7 @@
         <v>511</v>
       </c>
       <c r="D324" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E324" s="3">
         <f>IFERROR(VLOOKUP(A324,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37418,7 +37418,7 @@
         <v>512</v>
       </c>
       <c r="D325" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E325" s="3">
         <f>IFERROR(VLOOKUP(A325,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37436,7 +37436,7 @@
         <v>516</v>
       </c>
       <c r="D326" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E326" s="3">
         <f>IFERROR(VLOOKUP(A326,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37454,7 +37454,7 @@
         <v>517</v>
       </c>
       <c r="D327" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E327" s="3">
         <f>IFERROR(VLOOKUP(A327,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37472,7 +37472,7 @@
         <v>518</v>
       </c>
       <c r="D328" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E328" s="3">
         <f>IFERROR(VLOOKUP(A328,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37490,7 +37490,7 @@
         <v>520</v>
       </c>
       <c r="D329" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E329" s="3">
         <f>IFERROR(VLOOKUP(A329,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37508,7 +37508,7 @@
         <v>523</v>
       </c>
       <c r="D330" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E330" s="3">
         <f>IFERROR(VLOOKUP(A330,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37526,7 +37526,7 @@
         <v>535</v>
       </c>
       <c r="D331" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E331" s="3">
         <f>IFERROR(VLOOKUP(A331,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37544,7 +37544,7 @@
         <v>536</v>
       </c>
       <c r="D332" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E332" s="3">
         <f>IFERROR(VLOOKUP(A332,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37562,7 +37562,7 @@
         <v>540</v>
       </c>
       <c r="D333" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E333" s="3">
         <f>IFERROR(VLOOKUP(A333,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37580,7 +37580,7 @@
         <v>549</v>
       </c>
       <c r="D334" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E334" s="3">
         <f>IFERROR(VLOOKUP(A334,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37598,7 +37598,7 @@
         <v>550</v>
       </c>
       <c r="D335" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E335" s="3">
         <f>IFERROR(VLOOKUP(A335,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37616,7 +37616,7 @@
         <v>551</v>
       </c>
       <c r="D336" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E336" s="3">
         <f>IFERROR(VLOOKUP(A336,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37634,7 +37634,7 @@
         <v>574</v>
       </c>
       <c r="D337" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E337" s="3">
         <f>IFERROR(VLOOKUP(A337,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37652,7 +37652,7 @@
         <v>575</v>
       </c>
       <c r="D338" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E338" s="3">
         <f>IFERROR(VLOOKUP(A338,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37670,7 +37670,7 @@
         <v>577</v>
       </c>
       <c r="D339" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E339" s="3">
         <f>IFERROR(VLOOKUP(A339,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37688,7 +37688,7 @@
         <v>578</v>
       </c>
       <c r="D340" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E340" s="3">
         <f>IFERROR(VLOOKUP(A340,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37706,7 +37706,7 @@
         <v>579</v>
       </c>
       <c r="D341" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E341" s="3">
         <f>IFERROR(VLOOKUP(A341,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37724,7 +37724,7 @@
         <v>580</v>
       </c>
       <c r="D342" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E342" s="3">
         <f>IFERROR(VLOOKUP(A342,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37742,7 +37742,7 @@
         <v>581</v>
       </c>
       <c r="D343" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E343" s="3">
         <f>IFERROR(VLOOKUP(A343,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37760,7 +37760,7 @@
         <v>582</v>
       </c>
       <c r="D344" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E344" s="3">
         <f>IFERROR(VLOOKUP(A344,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37778,7 +37778,7 @@
         <v>584</v>
       </c>
       <c r="D345" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E345" s="3">
         <f>IFERROR(VLOOKUP(A345,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37796,7 +37796,7 @@
         <v>585</v>
       </c>
       <c r="D346" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E346" s="3">
         <f>IFERROR(VLOOKUP(A346,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37814,7 +37814,7 @@
         <v>586</v>
       </c>
       <c r="D347" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E347" s="3">
         <f>IFERROR(VLOOKUP(A347,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37832,7 +37832,7 @@
         <v>587</v>
       </c>
       <c r="D348" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E348" s="3">
         <f>IFERROR(VLOOKUP(A348,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37850,7 +37850,7 @@
         <v>588</v>
       </c>
       <c r="D349" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E349" s="3">
         <f>IFERROR(VLOOKUP(A349,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37868,7 +37868,7 @@
         <v>589</v>
       </c>
       <c r="D350" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E350" s="3">
         <f>IFERROR(VLOOKUP(A350,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37886,7 +37886,7 @@
         <v>590</v>
       </c>
       <c r="D351" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E351" s="3">
         <f>IFERROR(VLOOKUP(A351,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37904,7 +37904,7 @@
         <v>591</v>
       </c>
       <c r="D352" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E352" s="3">
         <f>IFERROR(VLOOKUP(A352,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37922,7 +37922,7 @@
         <v>592</v>
       </c>
       <c r="D353" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E353" s="3">
         <f>IFERROR(VLOOKUP(A353,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37940,7 +37940,7 @@
         <v>594</v>
       </c>
       <c r="D354" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E354" s="3">
         <f>IFERROR(VLOOKUP(A354,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37958,7 +37958,7 @@
         <v>596</v>
       </c>
       <c r="D355" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E355" s="3">
         <f>IFERROR(VLOOKUP(A355,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37976,7 +37976,7 @@
         <v>603</v>
       </c>
       <c r="D356" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E356" s="3">
         <f>IFERROR(VLOOKUP(A356,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37994,7 +37994,7 @@
         <v>605</v>
       </c>
       <c r="D357" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E357" s="3">
         <f>IFERROR(VLOOKUP(A357,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38012,7 +38012,7 @@
         <v>608</v>
       </c>
       <c r="D358" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E358" s="3">
         <f>IFERROR(VLOOKUP(A358,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38030,7 +38030,7 @@
         <v>612</v>
       </c>
       <c r="D359" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E359" s="3">
         <f>IFERROR(VLOOKUP(A359,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38048,7 +38048,7 @@
         <v>613</v>
       </c>
       <c r="D360" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E360" s="3">
         <f>IFERROR(VLOOKUP(A360,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38066,7 +38066,7 @@
         <v>614</v>
       </c>
       <c r="D361" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E361" s="3">
         <f>IFERROR(VLOOKUP(A361,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38084,7 +38084,7 @@
         <v>615</v>
       </c>
       <c r="D362" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E362" s="3">
         <f>IFERROR(VLOOKUP(A362,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38102,7 +38102,7 @@
         <v>617</v>
       </c>
       <c r="D363" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E363" s="3">
         <f>IFERROR(VLOOKUP(A363,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38120,7 +38120,7 @@
         <v>618</v>
       </c>
       <c r="D364" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E364" s="3">
         <f>IFERROR(VLOOKUP(A364,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38138,7 +38138,7 @@
         <v>620</v>
       </c>
       <c r="D365" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E365" s="3">
         <f>IFERROR(VLOOKUP(A365,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38156,7 +38156,7 @@
         <v>629</v>
       </c>
       <c r="D366" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E366" s="3">
         <f>IFERROR(VLOOKUP(A366,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38174,7 +38174,7 @@
         <v>631</v>
       </c>
       <c r="D367" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E367" s="3">
         <f>IFERROR(VLOOKUP(A367,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38192,7 +38192,7 @@
         <v>635</v>
       </c>
       <c r="D368" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E368" s="3">
         <f>IFERROR(VLOOKUP(A368,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38210,7 +38210,7 @@
         <v>643</v>
       </c>
       <c r="D369" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E369" s="3">
         <f>IFERROR(VLOOKUP(A369,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38228,7 +38228,7 @@
         <v>644</v>
       </c>
       <c r="D370" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E370" s="3">
         <f>IFERROR(VLOOKUP(A370,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38246,7 +38246,7 @@
         <v>645</v>
       </c>
       <c r="D371" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E371" s="3">
         <f>IFERROR(VLOOKUP(A371,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38264,7 +38264,7 @@
         <v>646</v>
       </c>
       <c r="D372" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E372" s="3">
         <f>IFERROR(VLOOKUP(A372,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38282,7 +38282,7 @@
         <v>648</v>
       </c>
       <c r="D373" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E373" s="3">
         <f>IFERROR(VLOOKUP(A373,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38300,7 +38300,7 @@
         <v>652</v>
       </c>
       <c r="D374" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E374" s="3">
         <f>IFERROR(VLOOKUP(A374,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38318,7 +38318,7 @@
         <v>653</v>
       </c>
       <c r="D375" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E375" s="3">
         <f>IFERROR(VLOOKUP(A375,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38336,7 +38336,7 @@
         <v>654</v>
       </c>
       <c r="D376" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E376" s="3">
         <f>IFERROR(VLOOKUP(A376,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38354,7 +38354,7 @@
         <v>655</v>
       </c>
       <c r="D377" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E377" s="3">
         <f>IFERROR(VLOOKUP(A377,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38372,7 +38372,7 @@
         <v>656</v>
       </c>
       <c r="D378" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E378" s="3">
         <f>IFERROR(VLOOKUP(A378,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38390,7 +38390,7 @@
         <v>658</v>
       </c>
       <c r="D379" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E379" s="3">
         <f>IFERROR(VLOOKUP(A379,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38408,7 +38408,7 @@
         <v>663</v>
       </c>
       <c r="D380" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E380" s="3">
         <f>IFERROR(VLOOKUP(A380,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38426,7 +38426,7 @@
         <v>664</v>
       </c>
       <c r="D381" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E381" s="3">
         <f>IFERROR(VLOOKUP(A381,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38444,7 +38444,7 @@
         <v>665</v>
       </c>
       <c r="D382" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E382" s="3">
         <f>IFERROR(VLOOKUP(A382,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38462,7 +38462,7 @@
         <v>666</v>
       </c>
       <c r="D383" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E383" s="3">
         <f>IFERROR(VLOOKUP(A383,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38480,7 +38480,7 @@
         <v>667</v>
       </c>
       <c r="D384" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E384" s="3">
         <f>IFERROR(VLOOKUP(A384,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38498,7 +38498,7 @@
         <v>668</v>
       </c>
       <c r="D385" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E385" s="3">
         <f>IFERROR(VLOOKUP(A385,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38516,7 +38516,7 @@
         <v>669</v>
       </c>
       <c r="D386" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E386" s="3">
         <f>IFERROR(VLOOKUP(A386,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38534,7 +38534,7 @@
         <v>670</v>
       </c>
       <c r="D387" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E387" s="3">
         <f>IFERROR(VLOOKUP(A387,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38552,7 +38552,7 @@
         <v>671</v>
       </c>
       <c r="D388" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E388" s="3">
         <f>IFERROR(VLOOKUP(A388,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38570,7 +38570,7 @@
         <v>674</v>
       </c>
       <c r="D389" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E389" s="3">
         <f>IFERROR(VLOOKUP(A389,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38588,7 +38588,7 @@
         <v>678</v>
       </c>
       <c r="D390" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E390" s="3">
         <f>IFERROR(VLOOKUP(A390,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38606,7 +38606,7 @@
         <v>680</v>
       </c>
       <c r="D391" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E391" s="3">
         <f>IFERROR(VLOOKUP(A391,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38624,7 +38624,7 @@
         <v>681</v>
       </c>
       <c r="D392" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E392" s="3">
         <f>IFERROR(VLOOKUP(A392,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38642,7 +38642,7 @@
         <v>682</v>
       </c>
       <c r="D393" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E393" s="3">
         <f>IFERROR(VLOOKUP(A393,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38660,7 +38660,7 @@
         <v>685</v>
       </c>
       <c r="D394" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E394" s="3">
         <f>IFERROR(VLOOKUP(A394,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38678,7 +38678,7 @@
         <v>686</v>
       </c>
       <c r="D395" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E395" s="3">
         <f>IFERROR(VLOOKUP(A395,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38696,7 +38696,7 @@
         <v>688</v>
       </c>
       <c r="D396" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E396" s="3">
         <f>IFERROR(VLOOKUP(A396,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38714,7 +38714,7 @@
         <v>689</v>
       </c>
       <c r="D397" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E397" s="3">
         <f>IFERROR(VLOOKUP(A397,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38732,7 +38732,7 @@
         <v>690</v>
       </c>
       <c r="D398" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E398" s="3">
         <f>IFERROR(VLOOKUP(A398,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38750,7 +38750,7 @@
         <v>692</v>
       </c>
       <c r="D399" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E399" s="3">
         <f>IFERROR(VLOOKUP(A399,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38768,7 +38768,7 @@
         <v>693</v>
       </c>
       <c r="D400" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E400" s="3">
         <f>IFERROR(VLOOKUP(A400,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38786,7 +38786,7 @@
         <v>696</v>
       </c>
       <c r="D401" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E401" s="3">
         <f>IFERROR(VLOOKUP(A401,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38804,7 +38804,7 @@
         <v>698</v>
       </c>
       <c r="D402" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E402" s="3">
         <f>IFERROR(VLOOKUP(A402,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38822,7 +38822,7 @@
         <v>699</v>
       </c>
       <c r="D403" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E403" s="3">
         <f>IFERROR(VLOOKUP(A403,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38840,7 +38840,7 @@
         <v>702</v>
       </c>
       <c r="D404" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E404" s="3">
         <f>IFERROR(VLOOKUP(A404,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38858,7 +38858,7 @@
         <v>704</v>
       </c>
       <c r="D405" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E405" s="3">
         <f>IFERROR(VLOOKUP(A405,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38876,7 +38876,7 @@
         <v>705</v>
       </c>
       <c r="D406" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E406" s="3">
         <f>IFERROR(VLOOKUP(A406,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38894,7 +38894,7 @@
         <v>706</v>
       </c>
       <c r="D407" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E407" s="3">
         <f>IFERROR(VLOOKUP(A407,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38912,7 +38912,7 @@
         <v>707</v>
       </c>
       <c r="D408" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E408" s="3">
         <f>IFERROR(VLOOKUP(A408,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38930,7 +38930,7 @@
         <v>708</v>
       </c>
       <c r="D409" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E409" s="3">
         <f>IFERROR(VLOOKUP(A409,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38948,7 +38948,7 @@
         <v>711</v>
       </c>
       <c r="D410" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E410" s="3">
         <f>IFERROR(VLOOKUP(A410,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38966,7 +38966,7 @@
         <v>713</v>
       </c>
       <c r="D411" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E411" s="3">
         <f>IFERROR(VLOOKUP(A411,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38984,7 +38984,7 @@
         <v>714</v>
       </c>
       <c r="D412" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E412" s="3">
         <f>IFERROR(VLOOKUP(A412,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39002,7 +39002,7 @@
         <v>716</v>
       </c>
       <c r="D413" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E413" s="3">
         <f>IFERROR(VLOOKUP(A413,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39020,7 +39020,7 @@
         <v>717</v>
       </c>
       <c r="D414" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E414" s="3">
         <f>IFERROR(VLOOKUP(A414,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39038,7 +39038,7 @@
         <v>725</v>
       </c>
       <c r="D415" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E415" s="3">
         <f>IFERROR(VLOOKUP(A415,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39056,7 +39056,7 @@
         <v>727</v>
       </c>
       <c r="D416" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E416" s="3">
         <f>IFERROR(VLOOKUP(A416,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39074,7 +39074,7 @@
         <v>728</v>
       </c>
       <c r="D417" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E417" s="3">
         <f>IFERROR(VLOOKUP(A417,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39092,7 +39092,7 @@
         <v>731</v>
       </c>
       <c r="D418" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E418" s="3">
         <f>IFERROR(VLOOKUP(A418,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39110,7 +39110,7 @@
         <v>733</v>
       </c>
       <c r="D419" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E419" s="3">
         <f>IFERROR(VLOOKUP(A419,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39128,7 +39128,7 @@
         <v>734</v>
       </c>
       <c r="D420" s="4" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E420" s="3">
         <f>IFERROR(VLOOKUP(A420,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39140,13 +39140,13 @@
         <v>4212</v>
       </c>
       <c r="B421" s="6" t="s">
-        <v>1508</v>
+        <v>1502</v>
       </c>
       <c r="C421" s="4" t="s">
-        <v>1622</v>
+        <v>1616</v>
       </c>
       <c r="D421" s="6" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E421" s="3">
         <f>IFERROR(VLOOKUP(A421,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39158,13 +39158,13 @@
         <v>4306</v>
       </c>
       <c r="B422" s="6" t="s">
-        <v>1525</v>
+        <v>1519</v>
       </c>
       <c r="C422" s="4" t="s">
-        <v>1639</v>
+        <v>1633</v>
       </c>
       <c r="D422" s="6" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E422" s="3">
         <f>IFERROR(VLOOKUP(A422,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39176,13 +39176,13 @@
         <v>4290</v>
       </c>
       <c r="B423" s="6" t="s">
-        <v>1526</v>
+        <v>1520</v>
       </c>
       <c r="C423" s="4" t="s">
-        <v>1640</v>
+        <v>1634</v>
       </c>
       <c r="D423" s="6" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E423" s="3">
         <f>IFERROR(VLOOKUP(A423,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39194,13 +39194,13 @@
         <v>4296</v>
       </c>
       <c r="B424" s="6" t="s">
-        <v>1527</v>
+        <v>1521</v>
       </c>
       <c r="C424" s="4" t="s">
-        <v>1641</v>
+        <v>1635</v>
       </c>
       <c r="D424" s="6" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E424" s="3">
         <f>IFERROR(VLOOKUP(A424,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39212,13 +39212,13 @@
         <v>4291</v>
       </c>
       <c r="B425" s="6" t="s">
-        <v>1530</v>
+        <v>1524</v>
       </c>
       <c r="C425" s="4" t="s">
-        <v>1644</v>
+        <v>1638</v>
       </c>
       <c r="D425" s="6" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E425" s="3">
         <f>IFERROR(VLOOKUP(A425,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39230,13 +39230,13 @@
         <v>4294</v>
       </c>
       <c r="B426" s="6" t="s">
-        <v>1531</v>
+        <v>1525</v>
       </c>
       <c r="C426" s="4" t="s">
-        <v>1645</v>
+        <v>1639</v>
       </c>
       <c r="D426" s="6" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E426" s="3">
         <f>IFERROR(VLOOKUP(A426,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39248,13 +39248,13 @@
         <v>4292</v>
       </c>
       <c r="B427" s="6" t="s">
-        <v>1534</v>
+        <v>1528</v>
       </c>
       <c r="C427" s="4" t="s">
-        <v>1648</v>
+        <v>1642</v>
       </c>
       <c r="D427" s="6" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E427" s="3">
         <f>IFERROR(VLOOKUP(A427,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39266,13 +39266,13 @@
         <v>4293</v>
       </c>
       <c r="B428" s="6" t="s">
-        <v>1536</v>
+        <v>1530</v>
       </c>
       <c r="C428" s="4" t="s">
-        <v>1650</v>
+        <v>1644</v>
       </c>
       <c r="D428" s="6" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E428" s="3">
         <f>IFERROR(VLOOKUP(A428,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39284,13 +39284,13 @@
         <v>2703</v>
       </c>
       <c r="B429" s="6" t="s">
-        <v>1537</v>
+        <v>1531</v>
       </c>
       <c r="C429" s="4" t="s">
-        <v>1651</v>
+        <v>1645</v>
       </c>
       <c r="D429" s="6" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E429" s="3">
         <f>IFERROR(VLOOKUP(A429,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39302,13 +39302,13 @@
         <v>4288</v>
       </c>
       <c r="B430" s="6" t="s">
-        <v>1547</v>
+        <v>1541</v>
       </c>
       <c r="C430" s="4" t="s">
-        <v>1661</v>
+        <v>1655</v>
       </c>
       <c r="D430" s="6" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E430" s="3">
         <f>IFERROR(VLOOKUP(A430,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39320,13 +39320,13 @@
         <v>4289</v>
       </c>
       <c r="B431" s="6" t="s">
-        <v>1548</v>
+        <v>1542</v>
       </c>
       <c r="C431" s="4" t="s">
-        <v>1662</v>
+        <v>1656</v>
       </c>
       <c r="D431" s="6" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E431" s="3">
         <f>IFERROR(VLOOKUP(A431,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39338,13 +39338,13 @@
         <v>4295</v>
       </c>
       <c r="B432" s="6" t="s">
-        <v>1549</v>
+        <v>1543</v>
       </c>
       <c r="C432" s="4" t="s">
-        <v>1663</v>
+        <v>1657</v>
       </c>
       <c r="D432" s="6" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E432" s="3">
         <f>IFERROR(VLOOKUP(A432,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39356,13 +39356,13 @@
         <v>4048</v>
       </c>
       <c r="B433" s="6" t="s">
-        <v>1563</v>
+        <v>1557</v>
       </c>
       <c r="C433" s="4" t="s">
-        <v>1678</v>
+        <v>1672</v>
       </c>
       <c r="D433" s="6" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E433" s="3">
         <f>IFERROR(VLOOKUP(A433,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39374,13 +39374,13 @@
         <v>2404</v>
       </c>
       <c r="B434" s="6" t="s">
-        <v>1576</v>
+        <v>1570</v>
       </c>
       <c r="C434" s="4" t="s">
-        <v>1691</v>
+        <v>1685</v>
       </c>
       <c r="D434" s="6" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E434" s="3">
         <f>IFERROR(VLOOKUP(A434,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39392,13 +39392,13 @@
         <v>2414</v>
       </c>
       <c r="B435" s="6" t="s">
-        <v>1579</v>
+        <v>1573</v>
       </c>
       <c r="C435" s="4" t="s">
-        <v>1694</v>
+        <v>1688</v>
       </c>
       <c r="D435" s="6" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E435" s="3">
         <f>IFERROR(VLOOKUP(A435,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39410,13 +39410,13 @@
         <v>2500</v>
       </c>
       <c r="B436" s="6" t="s">
-        <v>1585</v>
+        <v>1579</v>
       </c>
       <c r="C436" s="4" t="s">
-        <v>1700</v>
+        <v>1694</v>
       </c>
       <c r="D436" s="6" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E436" s="3">
         <f>IFERROR(VLOOKUP(A436,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39428,13 +39428,13 @@
         <v>2720</v>
       </c>
       <c r="B437" s="6" t="s">
-        <v>1586</v>
+        <v>1580</v>
       </c>
       <c r="C437" s="4" t="s">
-        <v>1701</v>
+        <v>1695</v>
       </c>
       <c r="D437" s="6" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E437" s="3">
         <f>IFERROR(VLOOKUP(A437,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39446,13 +39446,13 @@
         <v>2522</v>
       </c>
       <c r="B438" s="6" t="s">
-        <v>1588</v>
+        <v>1582</v>
       </c>
       <c r="C438" s="4" t="s">
-        <v>1703</v>
+        <v>1697</v>
       </c>
       <c r="D438" s="6" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E438" s="3">
         <f>IFERROR(VLOOKUP(A438,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39464,13 +39464,13 @@
         <v>2719</v>
       </c>
       <c r="B439" s="6" t="s">
-        <v>1589</v>
+        <v>1583</v>
       </c>
       <c r="C439" s="4" t="s">
-        <v>1704</v>
+        <v>1698</v>
       </c>
       <c r="D439" s="6" t="s">
-        <v>1474</v>
+        <v>1702</v>
       </c>
       <c r="E439" s="3">
         <f>IFERROR(VLOOKUP(A439,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39488,7 +39488,7 @@
         <v>245</v>
       </c>
       <c r="D440" s="4" t="s">
-        <v>1473</v>
+        <v>1703</v>
       </c>
       <c r="E440" s="3">
         <f>IFERROR(VLOOKUP(A440,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39506,7 +39506,7 @@
         <v>363</v>
       </c>
       <c r="D441" s="4" t="s">
-        <v>1473</v>
+        <v>1703</v>
       </c>
       <c r="E441" s="3">
         <f>IFERROR(VLOOKUP(A441,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39524,7 +39524,7 @@
         <v>194</v>
       </c>
       <c r="D442" s="4" t="s">
-        <v>1473</v>
+        <v>1703</v>
       </c>
       <c r="E442" s="3">
         <f>IFERROR(VLOOKUP(A442,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39542,7 +39542,7 @@
         <v>364</v>
       </c>
       <c r="D443" s="4" t="s">
-        <v>1473</v>
+        <v>1703</v>
       </c>
       <c r="E443" s="3">
         <f>IFERROR(VLOOKUP(A443,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39560,7 +39560,7 @@
         <v>265</v>
       </c>
       <c r="D444" s="4" t="s">
-        <v>1473</v>
+        <v>1703</v>
       </c>
       <c r="E444" s="3">
         <f>IFERROR(VLOOKUP(A444,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39578,7 +39578,7 @@
         <v>183</v>
       </c>
       <c r="D445" s="4" t="s">
-        <v>1473</v>
+        <v>1703</v>
       </c>
       <c r="E445" s="3">
         <f>IFERROR(VLOOKUP(A445,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39596,7 +39596,7 @@
         <v>450</v>
       </c>
       <c r="D446" s="4" t="s">
-        <v>1473</v>
+        <v>1703</v>
       </c>
       <c r="E446" s="3">
         <f>IFERROR(VLOOKUP(A446,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39614,7 +39614,7 @@
         <v>185</v>
       </c>
       <c r="D447" s="4" t="s">
-        <v>1473</v>
+        <v>1703</v>
       </c>
       <c r="E447" s="3">
         <f>IFERROR(VLOOKUP(A447,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39632,7 +39632,7 @@
         <v>262</v>
       </c>
       <c r="D448" s="4" t="s">
-        <v>1473</v>
+        <v>1703</v>
       </c>
       <c r="E448" s="3">
         <f>IFERROR(VLOOKUP(A448,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39650,7 +39650,7 @@
         <v>5</v>
       </c>
       <c r="D449" s="4" t="s">
-        <v>1473</v>
+        <v>1703</v>
       </c>
       <c r="E449" s="3">
         <f>IFERROR(VLOOKUP(A449,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39668,7 +39668,7 @@
         <v>181</v>
       </c>
       <c r="D450" s="4" t="s">
-        <v>1473</v>
+        <v>1703</v>
       </c>
       <c r="E450" s="3">
         <f>IFERROR(VLOOKUP(A450,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39686,7 +39686,7 @@
         <v>4</v>
       </c>
       <c r="D451" s="4" t="s">
-        <v>1473</v>
+        <v>1703</v>
       </c>
       <c r="E451" s="3">
         <f>IFERROR(VLOOKUP(A451,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39704,7 +39704,7 @@
         <v>75</v>
       </c>
       <c r="D452" s="4" t="s">
-        <v>1473</v>
+        <v>1703</v>
       </c>
       <c r="E452" s="3">
         <f>IFERROR(VLOOKUP(A452,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39722,7 +39722,7 @@
         <v>449</v>
       </c>
       <c r="D453" s="4" t="s">
-        <v>1473</v>
+        <v>1703</v>
       </c>
       <c r="E453" s="3">
         <f>IFERROR(VLOOKUP(A453,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39740,7 +39740,7 @@
         <v>195</v>
       </c>
       <c r="D454" s="4" t="s">
-        <v>1473</v>
+        <v>1703</v>
       </c>
       <c r="E454" s="3">
         <f>IFERROR(VLOOKUP(A454,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39758,7 +39758,7 @@
         <v>76</v>
       </c>
       <c r="D455" s="4" t="s">
-        <v>1473</v>
+        <v>1703</v>
       </c>
       <c r="E455" s="3">
         <f>IFERROR(VLOOKUP(A455,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39776,7 +39776,7 @@
         <v>32</v>
       </c>
       <c r="D456" s="4" t="s">
-        <v>1473</v>
+        <v>1703</v>
       </c>
       <c r="E456" s="3">
         <f>IFERROR(VLOOKUP(A456,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39794,7 +39794,7 @@
         <v>3</v>
       </c>
       <c r="D457" s="4" t="s">
-        <v>1473</v>
+        <v>1703</v>
       </c>
       <c r="E457" s="3">
         <f>IFERROR(VLOOKUP(A457,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39812,7 +39812,7 @@
         <v>258</v>
       </c>
       <c r="D458" s="4" t="s">
-        <v>1473</v>
+        <v>1703</v>
       </c>
       <c r="E458" s="3">
         <f>IFERROR(VLOOKUP(A458,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39830,7 +39830,7 @@
         <v>279</v>
       </c>
       <c r="D459" s="4" t="s">
-        <v>1473</v>
+        <v>1703</v>
       </c>
       <c r="E459" s="3">
         <f>IFERROR(VLOOKUP(A459,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39848,7 +39848,7 @@
         <v>198</v>
       </c>
       <c r="D460" s="4" t="s">
-        <v>1473</v>
+        <v>1703</v>
       </c>
       <c r="E460" s="3">
         <f>IFERROR(VLOOKUP(A460,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39866,7 +39866,7 @@
         <v>362</v>
       </c>
       <c r="D461" s="4" t="s">
-        <v>1473</v>
+        <v>1703</v>
       </c>
       <c r="E461" s="3">
         <f>IFERROR(VLOOKUP(A461,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39884,7 +39884,7 @@
         <v>280</v>
       </c>
       <c r="D462" s="4" t="s">
-        <v>1473</v>
+        <v>1703</v>
       </c>
       <c r="E462" s="3">
         <f>IFERROR(VLOOKUP(A462,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39902,7 +39902,7 @@
         <v>29</v>
       </c>
       <c r="D463" s="4" t="s">
-        <v>1473</v>
+        <v>1703</v>
       </c>
       <c r="E463" s="3">
         <f>IFERROR(VLOOKUP(A463,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39920,7 +39920,7 @@
         <v>266</v>
       </c>
       <c r="D464" s="4" t="s">
-        <v>1473</v>
+        <v>1703</v>
       </c>
       <c r="E464" s="3">
         <f>IFERROR(VLOOKUP(A464,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39938,7 +39938,7 @@
         <v>182</v>
       </c>
       <c r="D465" s="4" t="s">
-        <v>1473</v>
+        <v>1703</v>
       </c>
       <c r="E465" s="3">
         <f>IFERROR(VLOOKUP(A465,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39956,7 +39956,7 @@
         <v>184</v>
       </c>
       <c r="D466" s="4" t="s">
-        <v>1473</v>
+        <v>1703</v>
       </c>
       <c r="E466" s="3">
         <f>IFERROR(VLOOKUP(A466,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39974,7 +39974,7 @@
         <v>30</v>
       </c>
       <c r="D467" s="4" t="s">
-        <v>1473</v>
+        <v>1703</v>
       </c>
       <c r="E467" s="3">
         <f>IFERROR(VLOOKUP(A467,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39992,7 +39992,7 @@
         <v>275</v>
       </c>
       <c r="D468" s="4" t="s">
-        <v>1473</v>
+        <v>1703</v>
       </c>
       <c r="E468" s="3">
         <f>IFERROR(VLOOKUP(A468,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40010,7 +40010,7 @@
         <v>200</v>
       </c>
       <c r="D469" s="4" t="s">
-        <v>1473</v>
+        <v>1703</v>
       </c>
       <c r="E469" s="3">
         <f>IFERROR(VLOOKUP(A469,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40028,7 +40028,7 @@
         <v>277</v>
       </c>
       <c r="D470" s="4" t="s">
-        <v>1473</v>
+        <v>1703</v>
       </c>
       <c r="E470" s="3">
         <f>IFERROR(VLOOKUP(A470,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40046,7 +40046,7 @@
         <v>274</v>
       </c>
       <c r="D471" s="4" t="s">
-        <v>1473</v>
+        <v>1703</v>
       </c>
       <c r="E471" s="3">
         <f>IFERROR(VLOOKUP(A471,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40064,7 +40064,7 @@
         <v>33</v>
       </c>
       <c r="D472" s="4" t="s">
-        <v>1473</v>
+        <v>1703</v>
       </c>
       <c r="E472" s="3">
         <f>IFERROR(VLOOKUP(A472,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40082,7 +40082,7 @@
         <v>272</v>
       </c>
       <c r="D473" s="4" t="s">
-        <v>1473</v>
+        <v>1703</v>
       </c>
       <c r="E473" s="3">
         <f>IFERROR(VLOOKUP(A473,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40100,7 +40100,7 @@
         <v>264</v>
       </c>
       <c r="D474" s="4" t="s">
-        <v>1473</v>
+        <v>1703</v>
       </c>
       <c r="E474" s="3">
         <f>IFERROR(VLOOKUP(A474,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40118,7 +40118,7 @@
         <v>180</v>
       </c>
       <c r="D475" s="4" t="s">
-        <v>1473</v>
+        <v>1703</v>
       </c>
       <c r="E475" s="3">
         <f>IFERROR(VLOOKUP(A475,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40136,7 +40136,7 @@
         <v>78</v>
       </c>
       <c r="D476" s="4" t="s">
-        <v>1473</v>
+        <v>1703</v>
       </c>
       <c r="E476" s="3">
         <f>IFERROR(VLOOKUP(A476,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40154,7 +40154,7 @@
         <v>31</v>
       </c>
       <c r="D477" s="4" t="s">
-        <v>1473</v>
+        <v>1703</v>
       </c>
       <c r="E477" s="3">
         <f>IFERROR(VLOOKUP(A477,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40172,7 +40172,7 @@
         <v>27</v>
       </c>
       <c r="D478" s="4" t="s">
-        <v>1473</v>
+        <v>1703</v>
       </c>
       <c r="E478" s="3">
         <f>IFERROR(VLOOKUP(A478,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40190,7 +40190,7 @@
         <v>193</v>
       </c>
       <c r="D479" s="4" t="s">
-        <v>1473</v>
+        <v>1703</v>
       </c>
       <c r="E479" s="3">
         <f>IFERROR(VLOOKUP(A479,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40208,7 +40208,7 @@
         <v>257</v>
       </c>
       <c r="D480" s="4" t="s">
-        <v>1473</v>
+        <v>1703</v>
       </c>
       <c r="E480" s="3">
         <f>IFERROR(VLOOKUP(A480,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40226,7 +40226,7 @@
         <v>77</v>
       </c>
       <c r="D481" s="4" t="s">
-        <v>1473</v>
+        <v>1703</v>
       </c>
       <c r="E481" s="3">
         <f>IFERROR(VLOOKUP(A481,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40244,7 +40244,7 @@
         <v>192</v>
       </c>
       <c r="D482" s="4" t="s">
-        <v>1473</v>
+        <v>1703</v>
       </c>
       <c r="E482" s="3">
         <f>IFERROR(VLOOKUP(A482,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40262,7 +40262,7 @@
         <v>186</v>
       </c>
       <c r="D483" s="4" t="s">
-        <v>1473</v>
+        <v>1703</v>
       </c>
       <c r="E483" s="3">
         <f>IFERROR(VLOOKUP(A483,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40280,7 +40280,7 @@
         <v>190</v>
       </c>
       <c r="D484" s="4" t="s">
-        <v>1473</v>
+        <v>1703</v>
       </c>
       <c r="E484" s="3">
         <f>IFERROR(VLOOKUP(A484,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40298,7 +40298,7 @@
         <v>365</v>
       </c>
       <c r="D485" s="4" t="s">
-        <v>1473</v>
+        <v>1703</v>
       </c>
       <c r="E485" s="3">
         <f>IFERROR(VLOOKUP(A485,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40316,7 +40316,7 @@
         <v>199</v>
       </c>
       <c r="D486" s="4" t="s">
-        <v>1473</v>
+        <v>1703</v>
       </c>
       <c r="E486" s="3">
         <f>IFERROR(VLOOKUP(A486,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40334,7 +40334,7 @@
         <v>270</v>
       </c>
       <c r="D487" s="4" t="s">
-        <v>1473</v>
+        <v>1703</v>
       </c>
       <c r="E487" s="3">
         <f>IFERROR(VLOOKUP(A487,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40352,7 +40352,7 @@
         <v>261</v>
       </c>
       <c r="D488" s="4" t="s">
-        <v>1473</v>
+        <v>1703</v>
       </c>
       <c r="E488" s="3">
         <f>IFERROR(VLOOKUP(A488,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40370,7 +40370,7 @@
         <v>26</v>
       </c>
       <c r="D489" s="4" t="s">
-        <v>1473</v>
+        <v>1703</v>
       </c>
       <c r="E489" s="3">
         <f>IFERROR(VLOOKUP(A489,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40388,7 +40388,7 @@
         <v>271</v>
       </c>
       <c r="D490" s="4" t="s">
-        <v>1473</v>
+        <v>1703</v>
       </c>
       <c r="E490" s="3">
         <f>IFERROR(VLOOKUP(A490,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40406,7 +40406,7 @@
         <v>361</v>
       </c>
       <c r="D491" s="4" t="s">
-        <v>1473</v>
+        <v>1703</v>
       </c>
       <c r="E491" s="3">
         <f>IFERROR(VLOOKUP(A491,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40424,7 +40424,7 @@
         <v>260</v>
       </c>
       <c r="D492" s="4" t="s">
-        <v>1473</v>
+        <v>1703</v>
       </c>
       <c r="E492" s="3">
         <f>IFERROR(VLOOKUP(A492,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40442,7 +40442,7 @@
         <v>263</v>
       </c>
       <c r="D493" s="4" t="s">
-        <v>1473</v>
+        <v>1703</v>
       </c>
       <c r="E493" s="3">
         <f>IFERROR(VLOOKUP(A493,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40460,7 +40460,7 @@
         <v>276</v>
       </c>
       <c r="D494" s="4" t="s">
-        <v>1473</v>
+        <v>1703</v>
       </c>
       <c r="E494" s="3">
         <f>IFERROR(VLOOKUP(A494,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40478,7 +40478,7 @@
         <v>267</v>
       </c>
       <c r="D495" s="4" t="s">
-        <v>1473</v>
+        <v>1703</v>
       </c>
       <c r="E495" s="3">
         <f>IFERROR(VLOOKUP(A495,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40496,7 +40496,7 @@
         <v>177</v>
       </c>
       <c r="D496" s="4" t="s">
-        <v>1473</v>
+        <v>1703</v>
       </c>
       <c r="E496" s="3">
         <f>IFERROR(VLOOKUP(A496,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40514,7 +40514,7 @@
         <v>256</v>
       </c>
       <c r="D497" s="4" t="s">
-        <v>1473</v>
+        <v>1703</v>
       </c>
       <c r="E497" s="3">
         <f>IFERROR(VLOOKUP(A497,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40532,7 +40532,7 @@
         <v>197</v>
       </c>
       <c r="D498" s="4" t="s">
-        <v>1473</v>
+        <v>1703</v>
       </c>
       <c r="E498" s="3">
         <f>IFERROR(VLOOKUP(A498,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40550,7 +40550,7 @@
         <v>201</v>
       </c>
       <c r="D499" s="4" t="s">
-        <v>1473</v>
+        <v>1703</v>
       </c>
       <c r="E499" s="3">
         <f>IFERROR(VLOOKUP(A499,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40568,7 +40568,7 @@
         <v>269</v>
       </c>
       <c r="D500" s="4" t="s">
-        <v>1473</v>
+        <v>1703</v>
       </c>
       <c r="E500" s="3">
         <f>IFERROR(VLOOKUP(A500,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40586,7 +40586,7 @@
         <v>191</v>
       </c>
       <c r="D501" s="4" t="s">
-        <v>1473</v>
+        <v>1703</v>
       </c>
       <c r="E501" s="3">
         <f>IFERROR(VLOOKUP(A501,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40604,7 +40604,7 @@
         <v>278</v>
       </c>
       <c r="D502" s="4" t="s">
-        <v>1473</v>
+        <v>1703</v>
       </c>
       <c r="E502" s="3">
         <f>IFERROR(VLOOKUP(A502,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40616,13 +40616,13 @@
         <v>5873</v>
       </c>
       <c r="B503" s="6" t="s">
-        <v>1480</v>
+        <v>1474</v>
       </c>
       <c r="C503" s="4" t="s">
-        <v>1594</v>
+        <v>1588</v>
       </c>
       <c r="D503" s="6" t="s">
-        <v>1473</v>
+        <v>1703</v>
       </c>
       <c r="E503" s="3">
         <f>IFERROR(VLOOKUP(A503,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40640,7 +40640,7 @@
         <v>28</v>
       </c>
       <c r="D504" s="4" t="s">
-        <v>1473</v>
+        <v>1703</v>
       </c>
       <c r="E504" s="3">
         <f>IFERROR(VLOOKUP(A504,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40658,7 +40658,7 @@
         <v>448</v>
       </c>
       <c r="D505" s="4" t="s">
-        <v>1473</v>
+        <v>1703</v>
       </c>
       <c r="E505" s="3">
         <f>IFERROR(VLOOKUP(A505,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40676,7 +40676,7 @@
         <v>268</v>
       </c>
       <c r="D506" s="4" t="s">
-        <v>1473</v>
+        <v>1703</v>
       </c>
       <c r="E506" s="3">
         <f>IFERROR(VLOOKUP(A506,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40694,7 +40694,7 @@
         <v>34</v>
       </c>
       <c r="D507" s="4" t="s">
-        <v>1473</v>
+        <v>1703</v>
       </c>
       <c r="E507" s="3">
         <f>IFERROR(VLOOKUP(A507,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40712,7 +40712,7 @@
         <v>273</v>
       </c>
       <c r="D508" s="4" t="s">
-        <v>1473</v>
+        <v>1703</v>
       </c>
       <c r="E508" s="3">
         <f>IFERROR(VLOOKUP(A508,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40730,7 +40730,7 @@
         <v>259</v>
       </c>
       <c r="D509" s="4" t="s">
-        <v>1473</v>
+        <v>1703</v>
       </c>
       <c r="E509" s="3">
         <f>IFERROR(VLOOKUP(A509,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40748,7 +40748,7 @@
         <v>196</v>
       </c>
       <c r="D510" s="4" t="s">
-        <v>1473</v>
+        <v>1703</v>
       </c>
       <c r="E510" s="3">
         <f>IFERROR(VLOOKUP(A510,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40766,7 +40766,7 @@
         <v>447</v>
       </c>
       <c r="D511" s="4" t="s">
-        <v>1473</v>
+        <v>1703</v>
       </c>
       <c r="E511" s="3">
         <f>IFERROR(VLOOKUP(A511,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40778,13 +40778,13 @@
         <v>5890</v>
       </c>
       <c r="B512" s="6" t="s">
-        <v>1483</v>
+        <v>1477</v>
       </c>
       <c r="C512" s="4" t="s">
-        <v>1597</v>
+        <v>1591</v>
       </c>
       <c r="D512" s="6" t="s">
-        <v>1473</v>
+        <v>1703</v>
       </c>
       <c r="E512" s="3">
         <f>IFERROR(VLOOKUP(A512,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40796,13 +40796,13 @@
         <v>5875</v>
       </c>
       <c r="B513" s="6" t="s">
-        <v>1486</v>
+        <v>1480</v>
       </c>
       <c r="C513" s="4" t="s">
-        <v>1600</v>
+        <v>1594</v>
       </c>
       <c r="D513" s="6" t="s">
-        <v>1473</v>
+        <v>1703</v>
       </c>
       <c r="E513" s="3">
         <f>IFERROR(VLOOKUP(A513,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40814,13 +40814,13 @@
         <v>5872</v>
       </c>
       <c r="B514" s="6" t="s">
-        <v>1482</v>
+        <v>1476</v>
       </c>
       <c r="C514" s="4" t="s">
-        <v>1596</v>
+        <v>1590</v>
       </c>
       <c r="D514" s="6" t="s">
-        <v>1473</v>
+        <v>1703</v>
       </c>
       <c r="E514" s="3">
         <f>IFERROR(VLOOKUP(A514,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40832,13 +40832,13 @@
         <v>5876</v>
       </c>
       <c r="B515" s="6" t="s">
-        <v>1484</v>
+        <v>1478</v>
       </c>
       <c r="C515" s="4" t="s">
-        <v>1598</v>
+        <v>1592</v>
       </c>
       <c r="D515" s="6" t="s">
-        <v>1473</v>
+        <v>1703</v>
       </c>
       <c r="E515" s="3">
         <f>IFERROR(VLOOKUP(A515,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40856,7 +40856,7 @@
         <v>57</v>
       </c>
       <c r="D516" s="4" t="s">
-        <v>1476</v>
+        <v>1704</v>
       </c>
       <c r="E516" s="3">
         <f>IFERROR(VLOOKUP(A516,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40874,7 +40874,7 @@
         <v>56</v>
       </c>
       <c r="D517" s="4" t="s">
-        <v>1476</v>
+        <v>1704</v>
       </c>
       <c r="E517" s="3">
         <f>IFERROR(VLOOKUP(A517,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40886,13 +40886,13 @@
         <v>274</v>
       </c>
       <c r="B518" s="6" t="s">
-        <v>1479</v>
+        <v>1473</v>
       </c>
       <c r="C518" s="4" t="s">
-        <v>1593</v>
+        <v>1587</v>
       </c>
       <c r="D518" s="6" t="s">
-        <v>1476</v>
+        <v>1704</v>
       </c>
       <c r="E518" s="3">
         <f>IFERROR(VLOOKUP(A518,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40910,7 +40910,7 @@
         <v>205</v>
       </c>
       <c r="D519" s="4" t="s">
-        <v>1476</v>
+        <v>1704</v>
       </c>
       <c r="E519" s="3">
         <f>IFERROR(VLOOKUP(A519,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40928,7 +40928,7 @@
         <v>61</v>
       </c>
       <c r="D520" s="4" t="s">
-        <v>1476</v>
+        <v>1704</v>
       </c>
       <c r="E520" s="3">
         <f>IFERROR(VLOOKUP(A520,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40940,13 +40940,13 @@
         <v>283</v>
       </c>
       <c r="B521" s="6" t="s">
-        <v>1478</v>
+        <v>1472</v>
       </c>
       <c r="C521" s="4" t="s">
-        <v>1592</v>
+        <v>1586</v>
       </c>
       <c r="D521" s="6" t="s">
-        <v>1476</v>
+        <v>1704</v>
       </c>
       <c r="E521" s="3">
         <f>IFERROR(VLOOKUP(A521,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40964,7 +40964,7 @@
         <v>204</v>
       </c>
       <c r="D522" s="4" t="s">
-        <v>1476</v>
+        <v>1704</v>
       </c>
       <c r="E522" s="3">
         <f>IFERROR(VLOOKUP(A522,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40982,7 +40982,7 @@
         <v>113</v>
       </c>
       <c r="D523" s="4" t="s">
-        <v>1476</v>
+        <v>1704</v>
       </c>
       <c r="E523" s="3">
         <f>IFERROR(VLOOKUP(A523,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41000,7 +41000,7 @@
         <v>62</v>
       </c>
       <c r="D524" s="4" t="s">
-        <v>1476</v>
+        <v>1704</v>
       </c>
       <c r="E524" s="3">
         <f>IFERROR(VLOOKUP(A524,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41018,7 +41018,7 @@
         <v>112</v>
       </c>
       <c r="D525" s="4" t="s">
-        <v>1476</v>
+        <v>1704</v>
       </c>
       <c r="E525" s="3">
         <f>IFERROR(VLOOKUP(A525,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41036,7 +41036,7 @@
         <v>58</v>
       </c>
       <c r="D526" s="4" t="s">
-        <v>1476</v>
+        <v>1704</v>
       </c>
       <c r="E526" s="3">
         <f>IFERROR(VLOOKUP(A526,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41054,7 +41054,7 @@
         <v>390</v>
       </c>
       <c r="D527" s="4" t="s">
-        <v>1476</v>
+        <v>1704</v>
       </c>
       <c r="E527" s="3">
         <f>IFERROR(VLOOKUP(A527,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41072,7 +41072,7 @@
         <v>452</v>
       </c>
       <c r="D528" s="4" t="s">
-        <v>1476</v>
+        <v>1704</v>
       </c>
       <c r="E528" s="3">
         <f>IFERROR(VLOOKUP(A528,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41090,7 +41090,7 @@
         <v>22</v>
       </c>
       <c r="D529" s="4" t="s">
-        <v>1476</v>
+        <v>1704</v>
       </c>
       <c r="E529" s="3">
         <f>IFERROR(VLOOKUP(A529,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41108,7 +41108,7 @@
         <v>55</v>
       </c>
       <c r="D530" s="4" t="s">
-        <v>1476</v>
+        <v>1704</v>
       </c>
       <c r="E530" s="3">
         <f>IFERROR(VLOOKUP(A530,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41126,7 +41126,7 @@
         <v>435</v>
       </c>
       <c r="D531" s="4" t="s">
-        <v>1476</v>
+        <v>1704</v>
       </c>
       <c r="E531" s="3">
         <f>IFERROR(VLOOKUP(A531,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41144,7 +41144,7 @@
         <v>71</v>
       </c>
       <c r="D532" s="4" t="s">
-        <v>1476</v>
+        <v>1704</v>
       </c>
       <c r="E532" s="3">
         <f>IFERROR(VLOOKUP(A532,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41162,7 +41162,7 @@
         <v>254</v>
       </c>
       <c r="D533" s="4" t="s">
-        <v>1476</v>
+        <v>1704</v>
       </c>
       <c r="E533" s="3">
         <f>IFERROR(VLOOKUP(A533,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41180,7 +41180,7 @@
         <v>35</v>
       </c>
       <c r="D534" s="4" t="s">
-        <v>1476</v>
+        <v>1704</v>
       </c>
       <c r="E534" s="3">
         <f>IFERROR(VLOOKUP(A534,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41198,7 +41198,7 @@
         <v>74</v>
       </c>
       <c r="D535" s="4" t="s">
-        <v>1476</v>
+        <v>1704</v>
       </c>
       <c r="E535" s="3">
         <f>IFERROR(VLOOKUP(A535,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41216,7 +41216,7 @@
         <v>64</v>
       </c>
       <c r="D536" s="4" t="s">
-        <v>1476</v>
+        <v>1704</v>
       </c>
       <c r="E536" s="3">
         <f>IFERROR(VLOOKUP(A536,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41234,7 +41234,7 @@
         <v>202</v>
       </c>
       <c r="D537" s="4" t="s">
-        <v>1476</v>
+        <v>1704</v>
       </c>
       <c r="E537" s="3">
         <f>IFERROR(VLOOKUP(A537,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41252,7 +41252,7 @@
         <v>63</v>
       </c>
       <c r="D538" s="4" t="s">
-        <v>1476</v>
+        <v>1704</v>
       </c>
       <c r="E538" s="3">
         <f>IFERROR(VLOOKUP(A538,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41270,7 +41270,7 @@
         <v>203</v>
       </c>
       <c r="D539" s="4" t="s">
-        <v>1476</v>
+        <v>1704</v>
       </c>
       <c r="E539" s="3">
         <f>IFERROR(VLOOKUP(A539,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41288,7 +41288,7 @@
         <v>207</v>
       </c>
       <c r="D540" s="4" t="s">
-        <v>1476</v>
+        <v>1704</v>
       </c>
       <c r="E540" s="3">
         <f>IFERROR(VLOOKUP(A540,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41306,7 +41306,7 @@
         <v>111</v>
       </c>
       <c r="D541" s="4" t="s">
-        <v>1476</v>
+        <v>1704</v>
       </c>
       <c r="E541" s="3">
         <f>IFERROR(VLOOKUP(A541,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41324,7 +41324,7 @@
         <v>60</v>
       </c>
       <c r="D542" s="4" t="s">
-        <v>1476</v>
+        <v>1704</v>
       </c>
       <c r="E542" s="3">
         <f>IFERROR(VLOOKUP(A542,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41342,7 +41342,7 @@
         <v>23</v>
       </c>
       <c r="D543" s="4" t="s">
-        <v>1476</v>
+        <v>1704</v>
       </c>
       <c r="E543" s="3">
         <f>IFERROR(VLOOKUP(A543,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41360,7 +41360,7 @@
         <v>66</v>
       </c>
       <c r="D544" s="4" t="s">
-        <v>1476</v>
+        <v>1704</v>
       </c>
       <c r="E544" s="3">
         <f>IFERROR(VLOOKUP(A544,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41378,7 +41378,7 @@
         <v>73</v>
       </c>
       <c r="D545" s="4" t="s">
-        <v>1476</v>
+        <v>1704</v>
       </c>
       <c r="E545" s="3">
         <f>IFERROR(VLOOKUP(A545,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41396,7 +41396,7 @@
         <v>115</v>
       </c>
       <c r="D546" s="4" t="s">
-        <v>1476</v>
+        <v>1704</v>
       </c>
       <c r="E546" s="3">
         <f>IFERROR(VLOOKUP(A546,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41414,7 +41414,7 @@
         <v>226</v>
       </c>
       <c r="D547" s="4" t="s">
-        <v>1476</v>
+        <v>1704</v>
       </c>
       <c r="E547" s="3">
         <f>IFERROR(VLOOKUP(A547,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41432,7 +41432,7 @@
         <v>114</v>
       </c>
       <c r="D548" s="4" t="s">
-        <v>1476</v>
+        <v>1704</v>
       </c>
       <c r="E548" s="3">
         <f>IFERROR(VLOOKUP(A548,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41450,7 +41450,7 @@
         <v>451</v>
       </c>
       <c r="D549" s="4" t="s">
-        <v>1476</v>
+        <v>1704</v>
       </c>
       <c r="E549" s="3">
         <f>IFERROR(VLOOKUP(A549,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41468,7 +41468,7 @@
         <v>59</v>
       </c>
       <c r="D550" s="4" t="s">
-        <v>1476</v>
+        <v>1704</v>
       </c>
       <c r="E550" s="3">
         <f>IFERROR(VLOOKUP(A550,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41486,7 +41486,7 @@
         <v>65</v>
       </c>
       <c r="D551" s="4" t="s">
-        <v>1476</v>
+        <v>1704</v>
       </c>
       <c r="E551" s="3">
         <f>IFERROR(VLOOKUP(A551,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41504,7 +41504,7 @@
         <v>375</v>
       </c>
       <c r="D552" s="4" t="s">
-        <v>1476</v>
+        <v>1704</v>
       </c>
       <c r="E552" s="3">
         <f>IFERROR(VLOOKUP(A552,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41522,7 +41522,7 @@
         <v>255</v>
       </c>
       <c r="D553" s="4" t="s">
-        <v>1476</v>
+        <v>1704</v>
       </c>
       <c r="E553" s="3">
         <f>IFERROR(VLOOKUP(A553,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41540,7 +41540,7 @@
         <v>206</v>
       </c>
       <c r="D554" s="4" t="s">
-        <v>1476</v>
+        <v>1704</v>
       </c>
       <c r="E554" s="3">
         <f>IFERROR(VLOOKUP(A554,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41552,13 +41552,13 @@
         <v>5895</v>
       </c>
       <c r="B555" s="6" t="s">
-        <v>1487</v>
+        <v>1481</v>
       </c>
       <c r="C555" s="4" t="s">
-        <v>1601</v>
+        <v>1595</v>
       </c>
       <c r="D555" s="6" t="s">
-        <v>1476</v>
+        <v>1704</v>
       </c>
       <c r="E555" s="3">
         <f>IFERROR(VLOOKUP(A555,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41570,13 +41570,13 @@
         <v>5893</v>
       </c>
       <c r="B556" s="6" t="s">
-        <v>1481</v>
+        <v>1475</v>
       </c>
       <c r="C556" s="4" t="s">
-        <v>1595</v>
+        <v>1589</v>
       </c>
       <c r="D556" s="6" t="s">
-        <v>1476</v>
+        <v>1704</v>
       </c>
       <c r="E556" s="3">
         <f>IFERROR(VLOOKUP(A556,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41588,13 +41588,13 @@
         <v>5901</v>
       </c>
       <c r="B557" s="6" t="s">
-        <v>1492</v>
+        <v>1486</v>
       </c>
       <c r="C557" s="4" t="s">
-        <v>1606</v>
+        <v>1600</v>
       </c>
       <c r="D557" s="6" t="s">
-        <v>1476</v>
+        <v>1704</v>
       </c>
       <c r="E557" s="3">
         <f>IFERROR(VLOOKUP(A557,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41606,13 +41606,13 @@
         <v>5799</v>
       </c>
       <c r="B558" s="6" t="s">
-        <v>1485</v>
+        <v>1479</v>
       </c>
       <c r="C558" s="4" t="s">
-        <v>1599</v>
+        <v>1593</v>
       </c>
       <c r="D558" s="6" t="s">
-        <v>1476</v>
+        <v>1704</v>
       </c>
       <c r="E558" s="3">
         <f>IFERROR(VLOOKUP(A558,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41624,13 +41624,13 @@
         <v>5896</v>
       </c>
       <c r="B559" s="6" t="s">
-        <v>1515</v>
+        <v>1509</v>
       </c>
       <c r="C559" s="4" t="s">
-        <v>1629</v>
+        <v>1623</v>
       </c>
       <c r="D559" s="6" t="s">
-        <v>1476</v>
+        <v>1704</v>
       </c>
       <c r="E559" s="3">
         <f>IFERROR(VLOOKUP(A559,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41648,7 +41648,7 @@
         <v>139</v>
       </c>
       <c r="D560" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E560" s="3">
         <f>IFERROR(VLOOKUP(A560,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41666,7 +41666,7 @@
         <v>136</v>
       </c>
       <c r="D561" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E561" s="3">
         <f>IFERROR(VLOOKUP(A561,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41684,7 +41684,7 @@
         <v>235</v>
       </c>
       <c r="D562" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E562" s="3">
         <f>IFERROR(VLOOKUP(A562,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41702,7 +41702,7 @@
         <v>124</v>
       </c>
       <c r="D563" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E563" s="3">
         <f>IFERROR(VLOOKUP(A563,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41720,7 +41720,7 @@
         <v>11</v>
       </c>
       <c r="D564" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E564" s="3">
         <f>IFERROR(VLOOKUP(A564,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41738,7 +41738,7 @@
         <v>125</v>
       </c>
       <c r="D565" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E565" s="3">
         <f>IFERROR(VLOOKUP(A565,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41756,7 +41756,7 @@
         <v>360</v>
       </c>
       <c r="D566" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E566" s="3">
         <f>IFERROR(VLOOKUP(A566,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41774,7 +41774,7 @@
         <v>174</v>
       </c>
       <c r="D567" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E567" s="3">
         <f>IFERROR(VLOOKUP(A567,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41792,7 +41792,7 @@
         <v>249</v>
       </c>
       <c r="D568" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E568" s="3">
         <f>IFERROR(VLOOKUP(A568,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41810,7 +41810,7 @@
         <v>234</v>
       </c>
       <c r="D569" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E569" s="3">
         <f>IFERROR(VLOOKUP(A569,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41828,7 +41828,7 @@
         <v>329</v>
       </c>
       <c r="D570" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E570" s="3">
         <f>IFERROR(VLOOKUP(A570,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41846,7 +41846,7 @@
         <v>330</v>
       </c>
       <c r="D571" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E571" s="3">
         <f>IFERROR(VLOOKUP(A571,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41864,7 +41864,7 @@
         <v>123</v>
       </c>
       <c r="D572" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E572" s="3">
         <f>IFERROR(VLOOKUP(A572,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41882,7 +41882,7 @@
         <v>248</v>
       </c>
       <c r="D573" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E573" s="3">
         <f>IFERROR(VLOOKUP(A573,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41900,7 +41900,7 @@
         <v>486</v>
       </c>
       <c r="D574" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E574" s="3">
         <f>IFERROR(VLOOKUP(A574,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41918,7 +41918,7 @@
         <v>17</v>
       </c>
       <c r="D575" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E575" s="3">
         <f>IFERROR(VLOOKUP(A575,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41936,7 +41936,7 @@
         <v>328</v>
       </c>
       <c r="D576" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E576" s="3">
         <f>IFERROR(VLOOKUP(A576,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41954,7 +41954,7 @@
         <v>237</v>
       </c>
       <c r="D577" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E577" s="3">
         <f>IFERROR(VLOOKUP(A577,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41972,7 +41972,7 @@
         <v>141</v>
       </c>
       <c r="D578" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E578" s="3">
         <f>IFERROR(VLOOKUP(A578,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41990,7 +41990,7 @@
         <v>127</v>
       </c>
       <c r="D579" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E579" s="3">
         <f>IFERROR(VLOOKUP(A579,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -42008,7 +42008,7 @@
         <v>179</v>
       </c>
       <c r="D580" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E580" s="3">
         <f>IFERROR(VLOOKUP(A580,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -42026,7 +42026,7 @@
         <v>135</v>
       </c>
       <c r="D581" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E581" s="3">
         <f>IFERROR(VLOOKUP(A581,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -42044,7 +42044,7 @@
         <v>299</v>
       </c>
       <c r="D582" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E582" s="3">
         <f>IFERROR(VLOOKUP(A582,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -42062,7 +42062,7 @@
         <v>138</v>
       </c>
       <c r="D583" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E583" s="3">
         <f>IFERROR(VLOOKUP(A583,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -42080,7 +42080,7 @@
         <v>173</v>
       </c>
       <c r="D584" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E584" s="3">
         <f>IFERROR(VLOOKUP(A584,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -42098,7 +42098,7 @@
         <v>297</v>
       </c>
       <c r="D585" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E585" s="3">
         <f>IFERROR(VLOOKUP(A585,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -42116,7 +42116,7 @@
         <v>109</v>
       </c>
       <c r="D586" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E586" s="3">
         <f>IFERROR(VLOOKUP(A586,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -42134,7 +42134,7 @@
         <v>387</v>
       </c>
       <c r="D587" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E587" s="3">
         <f>IFERROR(VLOOKUP(A587,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -42152,7 +42152,7 @@
         <v>137</v>
       </c>
       <c r="D588" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E588" s="3">
         <f>IFERROR(VLOOKUP(A588,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -42170,7 +42170,7 @@
         <v>288</v>
       </c>
       <c r="D589" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E589" s="3">
         <f>IFERROR(VLOOKUP(A589,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -42188,7 +42188,7 @@
         <v>236</v>
       </c>
       <c r="D590" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E590" s="3">
         <f>IFERROR(VLOOKUP(A590,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -42200,13 +42200,13 @@
         <v>215</v>
       </c>
       <c r="B591" s="6" t="s">
-        <v>1496</v>
+        <v>1490</v>
       </c>
       <c r="C591" s="4" t="s">
-        <v>1610</v>
+        <v>1604</v>
       </c>
       <c r="D591" s="6" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E591" s="3">
         <f>IFERROR(VLOOKUP(A591,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -42224,7 +42224,7 @@
         <v>439</v>
       </c>
       <c r="D592" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E592" s="3">
         <f>IFERROR(VLOOKUP(A592,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -42242,7 +42242,7 @@
         <v>175</v>
       </c>
       <c r="D593" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E593" s="3">
         <f>IFERROR(VLOOKUP(A593,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -42260,7 +42260,7 @@
         <v>385</v>
       </c>
       <c r="D594" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E594" s="3">
         <f>IFERROR(VLOOKUP(A594,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -42278,7 +42278,7 @@
         <v>120</v>
       </c>
       <c r="D595" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E595" s="3">
         <f>IFERROR(VLOOKUP(A595,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -42296,7 +42296,7 @@
         <v>216</v>
       </c>
       <c r="D596" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E596" s="3">
         <f>IFERROR(VLOOKUP(A596,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -42314,7 +42314,7 @@
         <v>70</v>
       </c>
       <c r="D597" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E597" s="3">
         <f>IFERROR(VLOOKUP(A597,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -42332,7 +42332,7 @@
         <v>327</v>
       </c>
       <c r="D598" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E598" s="3">
         <f>IFERROR(VLOOKUP(A598,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -42350,7 +42350,7 @@
         <v>229</v>
       </c>
       <c r="D599" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E599" s="3">
         <f>IFERROR(VLOOKUP(A599,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -42368,7 +42368,7 @@
         <v>351</v>
       </c>
       <c r="D600" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E600" s="3">
         <f>IFERROR(VLOOKUP(A600,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -42386,7 +42386,7 @@
         <v>13</v>
       </c>
       <c r="D601" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E601" s="3">
         <f>IFERROR(VLOOKUP(A601,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -42404,7 +42404,7 @@
         <v>122</v>
       </c>
       <c r="D602" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E602" s="3">
         <f>IFERROR(VLOOKUP(A602,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -42422,7 +42422,7 @@
         <v>298</v>
       </c>
       <c r="D603" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E603" s="3">
         <f>IFERROR(VLOOKUP(A603,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -42440,7 +42440,7 @@
         <v>281</v>
       </c>
       <c r="D604" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E604" s="3">
         <f>IFERROR(VLOOKUP(A604,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -42458,7 +42458,7 @@
         <v>103</v>
       </c>
       <c r="D605" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E605" s="3">
         <f>IFERROR(VLOOKUP(A605,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -42476,7 +42476,7 @@
         <v>16</v>
       </c>
       <c r="D606" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E606" s="3">
         <f>IFERROR(VLOOKUP(A606,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -42494,7 +42494,7 @@
         <v>178</v>
       </c>
       <c r="D607" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E607" s="3">
         <f>IFERROR(VLOOKUP(A607,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -42512,7 +42512,7 @@
         <v>251</v>
       </c>
       <c r="D608" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E608" s="3">
         <f>IFERROR(VLOOKUP(A608,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -42530,7 +42530,7 @@
         <v>172</v>
       </c>
       <c r="D609" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E609" s="3">
         <f>IFERROR(VLOOKUP(A609,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -42548,7 +42548,7 @@
         <v>79</v>
       </c>
       <c r="D610" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E610" s="3">
         <f>IFERROR(VLOOKUP(A610,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -42566,7 +42566,7 @@
         <v>305</v>
       </c>
       <c r="D611" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E611" s="3">
         <f>IFERROR(VLOOKUP(A611,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -42584,7 +42584,7 @@
         <v>12</v>
       </c>
       <c r="D612" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E612" s="3">
         <f>IFERROR(VLOOKUP(A612,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -42602,7 +42602,7 @@
         <v>482</v>
       </c>
       <c r="D613" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E613" s="3">
         <f>IFERROR(VLOOKUP(A613,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -42620,7 +42620,7 @@
         <v>45</v>
       </c>
       <c r="D614" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E614" s="3">
         <f>IFERROR(VLOOKUP(A614,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -42638,7 +42638,7 @@
         <v>379</v>
       </c>
       <c r="D615" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E615" s="3">
         <f>IFERROR(VLOOKUP(A615,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -42656,7 +42656,7 @@
         <v>94</v>
       </c>
       <c r="D616" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E616" s="3">
         <f>IFERROR(VLOOKUP(A616,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -42674,7 +42674,7 @@
         <v>39</v>
       </c>
       <c r="D617" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E617" s="3">
         <f>IFERROR(VLOOKUP(A617,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -42692,7 +42692,7 @@
         <v>358</v>
       </c>
       <c r="D618" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E618" s="3">
         <f>IFERROR(VLOOKUP(A618,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -42710,7 +42710,7 @@
         <v>345</v>
       </c>
       <c r="D619" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E619" s="3">
         <f>IFERROR(VLOOKUP(A619,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -42728,7 +42728,7 @@
         <v>283</v>
       </c>
       <c r="D620" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E620" s="3">
         <f>IFERROR(VLOOKUP(A620,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -42746,7 +42746,7 @@
         <v>126</v>
       </c>
       <c r="D621" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E621" s="3">
         <f>IFERROR(VLOOKUP(A621,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -42764,7 +42764,7 @@
         <v>95</v>
       </c>
       <c r="D622" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E622" s="3">
         <f>IFERROR(VLOOKUP(A622,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -42782,7 +42782,7 @@
         <v>250</v>
       </c>
       <c r="D623" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E623" s="3">
         <f>IFERROR(VLOOKUP(A623,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -42800,7 +42800,7 @@
         <v>282</v>
       </c>
       <c r="D624" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E624" s="3">
         <f>IFERROR(VLOOKUP(A624,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -42818,7 +42818,7 @@
         <v>140</v>
       </c>
       <c r="D625" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E625" s="3">
         <f>IFERROR(VLOOKUP(A625,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -42836,7 +42836,7 @@
         <v>119</v>
       </c>
       <c r="D626" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E626" s="3">
         <f>IFERROR(VLOOKUP(A626,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -42854,7 +42854,7 @@
         <v>313</v>
       </c>
       <c r="D627" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E627" s="3">
         <f>IFERROR(VLOOKUP(A627,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -42872,7 +42872,7 @@
         <v>349</v>
       </c>
       <c r="D628" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E628" s="3">
         <f>IFERROR(VLOOKUP(A628,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -42890,7 +42890,7 @@
         <v>481</v>
       </c>
       <c r="D629" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E629" s="3">
         <f>IFERROR(VLOOKUP(A629,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -42908,7 +42908,7 @@
         <v>326</v>
       </c>
       <c r="D630" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E630" s="3">
         <f>IFERROR(VLOOKUP(A630,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -42926,7 +42926,7 @@
         <v>325</v>
       </c>
       <c r="D631" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E631" s="3">
         <f>IFERROR(VLOOKUP(A631,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -42944,7 +42944,7 @@
         <v>371</v>
       </c>
       <c r="D632" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E632" s="3">
         <f>IFERROR(VLOOKUP(A632,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -42962,7 +42962,7 @@
         <v>476</v>
       </c>
       <c r="D633" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E633" s="3">
         <f>IFERROR(VLOOKUP(A633,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -42980,7 +42980,7 @@
         <v>356</v>
       </c>
       <c r="D634" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E634" s="3">
         <f>IFERROR(VLOOKUP(A634,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -42998,7 +42998,7 @@
         <v>170</v>
       </c>
       <c r="D635" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E635" s="3">
         <f>IFERROR(VLOOKUP(A635,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -43016,7 +43016,7 @@
         <v>344</v>
       </c>
       <c r="D636" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E636" s="3">
         <f>IFERROR(VLOOKUP(A636,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -43034,7 +43034,7 @@
         <v>478</v>
       </c>
       <c r="D637" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E637" s="3">
         <f>IFERROR(VLOOKUP(A637,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -43052,7 +43052,7 @@
         <v>319</v>
       </c>
       <c r="D638" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E638" s="3">
         <f>IFERROR(VLOOKUP(A638,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -43070,7 +43070,7 @@
         <v>314</v>
       </c>
       <c r="D639" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E639" s="3">
         <f>IFERROR(VLOOKUP(A639,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -43088,7 +43088,7 @@
         <v>128</v>
       </c>
       <c r="D640" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E640" s="3">
         <f>IFERROR(VLOOKUP(A640,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -43106,7 +43106,7 @@
         <v>228</v>
       </c>
       <c r="D641" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E641" s="3">
         <f>IFERROR(VLOOKUP(A641,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -43124,7 +43124,7 @@
         <v>485</v>
       </c>
       <c r="D642" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E642" s="3">
         <f>IFERROR(VLOOKUP(A642,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -43142,7 +43142,7 @@
         <v>47</v>
       </c>
       <c r="D643" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E643" s="3">
         <f>IFERROR(VLOOKUP(A643,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -43160,7 +43160,7 @@
         <v>348</v>
       </c>
       <c r="D644" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E644" s="3">
         <f>IFERROR(VLOOKUP(A644,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -43178,7 +43178,7 @@
         <v>97</v>
       </c>
       <c r="D645" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E645" s="3">
         <f>IFERROR(VLOOKUP(A645,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -43196,7 +43196,7 @@
         <v>69</v>
       </c>
       <c r="D646" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E646" s="3">
         <f>IFERROR(VLOOKUP(A646,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -43214,7 +43214,7 @@
         <v>106</v>
       </c>
       <c r="D647" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E647" s="3">
         <f>IFERROR(VLOOKUP(A647,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -43232,7 +43232,7 @@
         <v>373</v>
       </c>
       <c r="D648" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E648" s="3">
         <f>IFERROR(VLOOKUP(A648,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -43250,7 +43250,7 @@
         <v>227</v>
       </c>
       <c r="D649" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E649" s="3">
         <f>IFERROR(VLOOKUP(A649,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -43268,7 +43268,7 @@
         <v>243</v>
       </c>
       <c r="D650" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E650" s="3">
         <f>IFERROR(VLOOKUP(A650,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -43286,7 +43286,7 @@
         <v>333</v>
       </c>
       <c r="D651" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E651" s="3">
         <f>IFERROR(VLOOKUP(A651,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -43304,7 +43304,7 @@
         <v>372</v>
       </c>
       <c r="D652" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E652" s="3">
         <f>IFERROR(VLOOKUP(A652,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -43322,7 +43322,7 @@
         <v>129</v>
       </c>
       <c r="D653" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E653" s="3">
         <f>IFERROR(VLOOKUP(A653,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -43340,7 +43340,7 @@
         <v>20</v>
       </c>
       <c r="D654" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E654" s="3">
         <f>IFERROR(VLOOKUP(A654,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -43358,7 +43358,7 @@
         <v>19</v>
       </c>
       <c r="D655" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E655" s="3">
         <f>IFERROR(VLOOKUP(A655,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -43376,7 +43376,7 @@
         <v>232</v>
       </c>
       <c r="D656" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E656" s="3">
         <f>IFERROR(VLOOKUP(A656,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -43394,7 +43394,7 @@
         <v>43</v>
       </c>
       <c r="D657" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E657" s="3">
         <f>IFERROR(VLOOKUP(A657,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -43412,7 +43412,7 @@
         <v>44</v>
       </c>
       <c r="D658" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E658" s="3">
         <f>IFERROR(VLOOKUP(A658,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -43430,7 +43430,7 @@
         <v>487</v>
       </c>
       <c r="D659" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E659" s="3">
         <f>IFERROR(VLOOKUP(A659,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -43448,7 +43448,7 @@
         <v>470</v>
       </c>
       <c r="D660" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E660" s="3">
         <f>IFERROR(VLOOKUP(A660,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -43466,7 +43466,7 @@
         <v>343</v>
       </c>
       <c r="D661" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E661" s="3">
         <f>IFERROR(VLOOKUP(A661,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -43484,7 +43484,7 @@
         <v>104</v>
       </c>
       <c r="D662" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E662" s="3">
         <f>IFERROR(VLOOKUP(A662,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -43502,7 +43502,7 @@
         <v>93</v>
       </c>
       <c r="D663" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E663" s="3">
         <f>IFERROR(VLOOKUP(A663,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -43520,7 +43520,7 @@
         <v>367</v>
       </c>
       <c r="D664" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E664" s="3">
         <f>IFERROR(VLOOKUP(A664,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -43538,7 +43538,7 @@
         <v>341</v>
       </c>
       <c r="D665" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E665" s="3">
         <f>IFERROR(VLOOKUP(A665,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -43556,7 +43556,7 @@
         <v>368</v>
       </c>
       <c r="D666" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E666" s="3">
         <f>IFERROR(VLOOKUP(A666,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -43574,7 +43574,7 @@
         <v>90</v>
       </c>
       <c r="D667" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E667" s="3">
         <f>IFERROR(VLOOKUP(A667,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -43592,7 +43592,7 @@
         <v>376</v>
       </c>
       <c r="D668" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E668" s="3">
         <f>IFERROR(VLOOKUP(A668,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -43610,7 +43610,7 @@
         <v>337</v>
       </c>
       <c r="D669" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E669" s="3">
         <f>IFERROR(VLOOKUP(A669,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -43628,7 +43628,7 @@
         <v>347</v>
       </c>
       <c r="D670" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E670" s="3">
         <f>IFERROR(VLOOKUP(A670,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -43646,7 +43646,7 @@
         <v>240</v>
       </c>
       <c r="D671" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E671" s="3">
         <f>IFERROR(VLOOKUP(A671,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -43664,7 +43664,7 @@
         <v>239</v>
       </c>
       <c r="D672" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E672" s="3">
         <f>IFERROR(VLOOKUP(A672,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -43682,7 +43682,7 @@
         <v>40</v>
       </c>
       <c r="D673" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E673" s="3">
         <f>IFERROR(VLOOKUP(A673,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -43700,7 +43700,7 @@
         <v>171</v>
       </c>
       <c r="D674" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E674" s="3">
         <f>IFERROR(VLOOKUP(A674,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -43718,7 +43718,7 @@
         <v>231</v>
       </c>
       <c r="D675" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E675" s="3">
         <f>IFERROR(VLOOKUP(A675,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -43736,7 +43736,7 @@
         <v>342</v>
       </c>
       <c r="D676" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E676" s="3">
         <f>IFERROR(VLOOKUP(A676,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -43754,7 +43754,7 @@
         <v>312</v>
       </c>
       <c r="D677" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E677" s="3">
         <f>IFERROR(VLOOKUP(A677,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -43772,7 +43772,7 @@
         <v>238</v>
       </c>
       <c r="D678" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E678" s="3">
         <f>IFERROR(VLOOKUP(A678,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -43790,7 +43790,7 @@
         <v>334</v>
       </c>
       <c r="D679" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E679" s="3">
         <f>IFERROR(VLOOKUP(A679,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -43808,7 +43808,7 @@
         <v>108</v>
       </c>
       <c r="D680" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E680" s="3">
         <f>IFERROR(VLOOKUP(A680,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -43826,7 +43826,7 @@
         <v>92</v>
       </c>
       <c r="D681" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E681" s="3">
         <f>IFERROR(VLOOKUP(A681,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -43844,7 +43844,7 @@
         <v>304</v>
       </c>
       <c r="D682" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E682" s="3">
         <f>IFERROR(VLOOKUP(A682,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -43862,7 +43862,7 @@
         <v>484</v>
       </c>
       <c r="D683" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E683" s="3">
         <f>IFERROR(VLOOKUP(A683,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -43880,7 +43880,7 @@
         <v>230</v>
       </c>
       <c r="D684" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E684" s="3">
         <f>IFERROR(VLOOKUP(A684,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -43898,7 +43898,7 @@
         <v>331</v>
       </c>
       <c r="D685" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E685" s="3">
         <f>IFERROR(VLOOKUP(A685,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -43916,7 +43916,7 @@
         <v>188</v>
       </c>
       <c r="D686" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E686" s="3">
         <f>IFERROR(VLOOKUP(A686,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -43934,7 +43934,7 @@
         <v>353</v>
       </c>
       <c r="D687" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E687" s="3">
         <f>IFERROR(VLOOKUP(A687,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -43952,7 +43952,7 @@
         <v>105</v>
       </c>
       <c r="D688" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E688" s="3">
         <f>IFERROR(VLOOKUP(A688,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -43970,7 +43970,7 @@
         <v>176</v>
       </c>
       <c r="D689" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E689" s="3">
         <f>IFERROR(VLOOKUP(A689,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -43988,7 +43988,7 @@
         <v>366</v>
       </c>
       <c r="D690" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E690" s="3">
         <f>IFERROR(VLOOKUP(A690,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -44006,7 +44006,7 @@
         <v>233</v>
       </c>
       <c r="D691" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E691" s="3">
         <f>IFERROR(VLOOKUP(A691,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -44024,7 +44024,7 @@
         <v>72</v>
       </c>
       <c r="D692" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E692" s="3">
         <f>IFERROR(VLOOKUP(A692,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -44042,7 +44042,7 @@
         <v>100</v>
       </c>
       <c r="D693" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E693" s="3">
         <f>IFERROR(VLOOKUP(A693,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -44060,7 +44060,7 @@
         <v>388</v>
       </c>
       <c r="D694" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E694" s="3">
         <f>IFERROR(VLOOKUP(A694,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -44078,7 +44078,7 @@
         <v>244</v>
       </c>
       <c r="D695" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E695" s="3">
         <f>IFERROR(VLOOKUP(A695,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -44096,7 +44096,7 @@
         <v>68</v>
       </c>
       <c r="D696" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E696" s="3">
         <f>IFERROR(VLOOKUP(A696,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -44114,7 +44114,7 @@
         <v>102</v>
       </c>
       <c r="D697" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E697" s="3">
         <f>IFERROR(VLOOKUP(A697,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -44132,7 +44132,7 @@
         <v>359</v>
       </c>
       <c r="D698" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E698" s="3">
         <f>IFERROR(VLOOKUP(A698,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -44150,7 +44150,7 @@
         <v>440</v>
       </c>
       <c r="D699" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E699" s="3">
         <f>IFERROR(VLOOKUP(A699,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -44168,7 +44168,7 @@
         <v>318</v>
       </c>
       <c r="D700" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E700" s="3">
         <f>IFERROR(VLOOKUP(A700,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -44186,7 +44186,7 @@
         <v>335</v>
       </c>
       <c r="D701" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E701" s="3">
         <f>IFERROR(VLOOKUP(A701,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -44204,7 +44204,7 @@
         <v>332</v>
       </c>
       <c r="D702" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E702" s="3">
         <f>IFERROR(VLOOKUP(A702,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -44222,7 +44222,7 @@
         <v>284</v>
       </c>
       <c r="D703" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E703" s="3">
         <f>IFERROR(VLOOKUP(A703,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -44240,7 +44240,7 @@
         <v>306</v>
       </c>
       <c r="D704" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E704" s="3">
         <f>IFERROR(VLOOKUP(A704,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -44258,7 +44258,7 @@
         <v>479</v>
       </c>
       <c r="D705" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E705" s="3">
         <f>IFERROR(VLOOKUP(A705,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -44276,7 +44276,7 @@
         <v>399</v>
       </c>
       <c r="D706" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E706" s="3">
         <f>IFERROR(VLOOKUP(A706,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -44294,7 +44294,7 @@
         <v>394</v>
       </c>
       <c r="D707" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E707" s="3">
         <f>IFERROR(VLOOKUP(A707,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -44312,7 +44312,7 @@
         <v>14</v>
       </c>
       <c r="D708" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E708" s="3">
         <f>IFERROR(VLOOKUP(A708,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -44330,7 +44330,7 @@
         <v>91</v>
       </c>
       <c r="D709" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E709" s="3">
         <f>IFERROR(VLOOKUP(A709,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -44348,7 +44348,7 @@
         <v>15</v>
       </c>
       <c r="D710" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E710" s="3">
         <f>IFERROR(VLOOKUP(A710,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -44366,7 +44366,7 @@
         <v>118</v>
       </c>
       <c r="D711" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E711" s="3">
         <f>IFERROR(VLOOKUP(A711,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -44384,7 +44384,7 @@
         <v>46</v>
       </c>
       <c r="D712" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E712" s="3">
         <f>IFERROR(VLOOKUP(A712,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -44402,7 +44402,7 @@
         <v>315</v>
       </c>
       <c r="D713" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E713" s="3">
         <f>IFERROR(VLOOKUP(A713,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -44420,7 +44420,7 @@
         <v>242</v>
       </c>
       <c r="D714" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E714" s="3">
         <f>IFERROR(VLOOKUP(A714,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -44438,7 +44438,7 @@
         <v>302</v>
       </c>
       <c r="D715" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E715" s="3">
         <f>IFERROR(VLOOKUP(A715,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -44456,7 +44456,7 @@
         <v>67</v>
       </c>
       <c r="D716" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E716" s="3">
         <f>IFERROR(VLOOKUP(A716,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -44474,7 +44474,7 @@
         <v>295</v>
       </c>
       <c r="D717" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E717" s="3">
         <f>IFERROR(VLOOKUP(A717,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -44492,7 +44492,7 @@
         <v>42</v>
       </c>
       <c r="D718" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E718" s="3">
         <f>IFERROR(VLOOKUP(A718,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -44510,7 +44510,7 @@
         <v>324</v>
       </c>
       <c r="D719" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E719" s="3">
         <f>IFERROR(VLOOKUP(A719,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -44528,7 +44528,7 @@
         <v>311</v>
       </c>
       <c r="D720" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E720" s="3">
         <f>IFERROR(VLOOKUP(A720,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -44546,7 +44546,7 @@
         <v>320</v>
       </c>
       <c r="D721" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E721" s="3">
         <f>IFERROR(VLOOKUP(A721,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -44564,7 +44564,7 @@
         <v>471</v>
       </c>
       <c r="D722" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E722" s="3">
         <f>IFERROR(VLOOKUP(A722,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -44582,7 +44582,7 @@
         <v>350</v>
       </c>
       <c r="D723" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E723" s="3">
         <f>IFERROR(VLOOKUP(A723,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -44600,7 +44600,7 @@
         <v>131</v>
       </c>
       <c r="D724" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E724" s="3">
         <f>IFERROR(VLOOKUP(A724,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -44618,7 +44618,7 @@
         <v>477</v>
       </c>
       <c r="D725" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E725" s="3">
         <f>IFERROR(VLOOKUP(A725,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -44636,7 +44636,7 @@
         <v>489</v>
       </c>
       <c r="D726" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E726" s="3">
         <f>IFERROR(VLOOKUP(A726,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -44654,7 +44654,7 @@
         <v>307</v>
       </c>
       <c r="D727" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E727" s="3">
         <f>IFERROR(VLOOKUP(A727,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -44672,7 +44672,7 @@
         <v>132</v>
       </c>
       <c r="D728" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E728" s="3">
         <f>IFERROR(VLOOKUP(A728,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -44690,7 +44690,7 @@
         <v>336</v>
       </c>
       <c r="D729" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E729" s="3">
         <f>IFERROR(VLOOKUP(A729,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -44702,13 +44702,13 @@
         <v>5889</v>
       </c>
       <c r="B730" s="6" t="s">
-        <v>1553</v>
+        <v>1547</v>
       </c>
       <c r="C730" s="4" t="s">
-        <v>1667</v>
+        <v>1661</v>
       </c>
       <c r="D730" s="6" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E730" s="3">
         <f>IFERROR(VLOOKUP(A730,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -44726,7 +44726,7 @@
         <v>317</v>
       </c>
       <c r="D731" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E731" s="3">
         <f>IFERROR(VLOOKUP(A731,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -44744,7 +44744,7 @@
         <v>473</v>
       </c>
       <c r="D732" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E732" s="3">
         <f>IFERROR(VLOOKUP(A732,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -44762,7 +44762,7 @@
         <v>130</v>
       </c>
       <c r="D733" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E733" s="3">
         <f>IFERROR(VLOOKUP(A733,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -44780,7 +44780,7 @@
         <v>222</v>
       </c>
       <c r="D734" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E734" s="3">
         <f>IFERROR(VLOOKUP(A734,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -44798,7 +44798,7 @@
         <v>107</v>
       </c>
       <c r="D735" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E735" s="3">
         <f>IFERROR(VLOOKUP(A735,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -44816,7 +44816,7 @@
         <v>96</v>
       </c>
       <c r="D736" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E736" s="3">
         <f>IFERROR(VLOOKUP(A736,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -44834,7 +44834,7 @@
         <v>294</v>
       </c>
       <c r="D737" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E737" s="3">
         <f>IFERROR(VLOOKUP(A737,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -44852,7 +44852,7 @@
         <v>480</v>
       </c>
       <c r="D738" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E738" s="3">
         <f>IFERROR(VLOOKUP(A738,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -44870,7 +44870,7 @@
         <v>110</v>
       </c>
       <c r="D739" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E739" s="3">
         <f>IFERROR(VLOOKUP(A739,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -44888,7 +44888,7 @@
         <v>340</v>
       </c>
       <c r="D740" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E740" s="3">
         <f>IFERROR(VLOOKUP(A740,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -44906,7 +44906,7 @@
         <v>41</v>
       </c>
       <c r="D741" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E741" s="3">
         <f>IFERROR(VLOOKUP(A741,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -44924,7 +44924,7 @@
         <v>287</v>
       </c>
       <c r="D742" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E742" s="3">
         <f>IFERROR(VLOOKUP(A742,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -44942,7 +44942,7 @@
         <v>377</v>
       </c>
       <c r="D743" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E743" s="3">
         <f>IFERROR(VLOOKUP(A743,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -44960,7 +44960,7 @@
         <v>472</v>
       </c>
       <c r="D744" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E744" s="3">
         <f>IFERROR(VLOOKUP(A744,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -44978,7 +44978,7 @@
         <v>352</v>
       </c>
       <c r="D745" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E745" s="3">
         <f>IFERROR(VLOOKUP(A745,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -44996,7 +44996,7 @@
         <v>83</v>
       </c>
       <c r="D746" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E746" s="3">
         <f>IFERROR(VLOOKUP(A746,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -45014,7 +45014,7 @@
         <v>291</v>
       </c>
       <c r="D747" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E747" s="3">
         <f>IFERROR(VLOOKUP(A747,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -45032,7 +45032,7 @@
         <v>488</v>
       </c>
       <c r="D748" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E748" s="3">
         <f>IFERROR(VLOOKUP(A748,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -45050,7 +45050,7 @@
         <v>321</v>
       </c>
       <c r="D749" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E749" s="3">
         <f>IFERROR(VLOOKUP(A749,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -45068,7 +45068,7 @@
         <v>474</v>
       </c>
       <c r="D750" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E750" s="3">
         <f>IFERROR(VLOOKUP(A750,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -45086,7 +45086,7 @@
         <v>224</v>
       </c>
       <c r="D751" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E751" s="3">
         <f>IFERROR(VLOOKUP(A751,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -45104,7 +45104,7 @@
         <v>323</v>
       </c>
       <c r="D752" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E752" s="3">
         <f>IFERROR(VLOOKUP(A752,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -45122,7 +45122,7 @@
         <v>80</v>
       </c>
       <c r="D753" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E753" s="3">
         <f>IFERROR(VLOOKUP(A753,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -45140,7 +45140,7 @@
         <v>133</v>
       </c>
       <c r="D754" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E754" s="3">
         <f>IFERROR(VLOOKUP(A754,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -45158,7 +45158,7 @@
         <v>223</v>
       </c>
       <c r="D755" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E755" s="3">
         <f>IFERROR(VLOOKUP(A755,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -45176,7 +45176,7 @@
         <v>142</v>
       </c>
       <c r="D756" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E756" s="3">
         <f>IFERROR(VLOOKUP(A756,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -45194,7 +45194,7 @@
         <v>380</v>
       </c>
       <c r="D757" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E757" s="3">
         <f>IFERROR(VLOOKUP(A757,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -45212,7 +45212,7 @@
         <v>386</v>
       </c>
       <c r="D758" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E758" s="3">
         <f>IFERROR(VLOOKUP(A758,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -45230,7 +45230,7 @@
         <v>338</v>
       </c>
       <c r="D759" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E759" s="3">
         <f>IFERROR(VLOOKUP(A759,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -45248,7 +45248,7 @@
         <v>308</v>
       </c>
       <c r="D760" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E760" s="3">
         <f>IFERROR(VLOOKUP(A760,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -45266,7 +45266,7 @@
         <v>378</v>
       </c>
       <c r="D761" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E761" s="3">
         <f>IFERROR(VLOOKUP(A761,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -45284,7 +45284,7 @@
         <v>82</v>
       </c>
       <c r="D762" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E762" s="3">
         <f>IFERROR(VLOOKUP(A762,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -45302,7 +45302,7 @@
         <v>346</v>
       </c>
       <c r="D763" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E763" s="3">
         <f>IFERROR(VLOOKUP(A763,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -45320,7 +45320,7 @@
         <v>339</v>
       </c>
       <c r="D764" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E764" s="3">
         <f>IFERROR(VLOOKUP(A764,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -45338,7 +45338,7 @@
         <v>21</v>
       </c>
       <c r="D765" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E765" s="3">
         <f>IFERROR(VLOOKUP(A765,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -45356,7 +45356,7 @@
         <v>405</v>
       </c>
       <c r="D766" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E766" s="3">
         <f>IFERROR(VLOOKUP(A766,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -45374,7 +45374,7 @@
         <v>290</v>
       </c>
       <c r="D767" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E767" s="3">
         <f>IFERROR(VLOOKUP(A767,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -45392,7 +45392,7 @@
         <v>89</v>
       </c>
       <c r="D768" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E768" s="3">
         <f>IFERROR(VLOOKUP(A768,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -45410,7 +45410,7 @@
         <v>221</v>
       </c>
       <c r="D769" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E769" s="3">
         <f>IFERROR(VLOOKUP(A769,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -45428,7 +45428,7 @@
         <v>309</v>
       </c>
       <c r="D770" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E770" s="3">
         <f>IFERROR(VLOOKUP(A770,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -45446,7 +45446,7 @@
         <v>99</v>
       </c>
       <c r="D771" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E771" s="3">
         <f>IFERROR(VLOOKUP(A771,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -45464,7 +45464,7 @@
         <v>310</v>
       </c>
       <c r="D772" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E772" s="3">
         <f>IFERROR(VLOOKUP(A772,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -45482,7 +45482,7 @@
         <v>121</v>
       </c>
       <c r="D773" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E773" s="3">
         <f>IFERROR(VLOOKUP(A773,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -45500,7 +45500,7 @@
         <v>316</v>
       </c>
       <c r="D774" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E774" s="3">
         <f>IFERROR(VLOOKUP(A774,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -45512,13 +45512,13 @@
         <v>5881</v>
       </c>
       <c r="B775" s="6" t="s">
-        <v>1518</v>
+        <v>1512</v>
       </c>
       <c r="C775" s="4" t="s">
-        <v>1632</v>
+        <v>1626</v>
       </c>
       <c r="D775" s="6" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E775" s="3">
         <f>IFERROR(VLOOKUP(A775,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -45536,7 +45536,7 @@
         <v>54</v>
       </c>
       <c r="D776" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E776" s="3">
         <f>IFERROR(VLOOKUP(A776,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -45554,7 +45554,7 @@
         <v>395</v>
       </c>
       <c r="D777" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E777" s="3">
         <f>IFERROR(VLOOKUP(A777,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -45572,7 +45572,7 @@
         <v>84</v>
       </c>
       <c r="D778" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E778" s="3">
         <f>IFERROR(VLOOKUP(A778,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -45584,13 +45584,13 @@
         <v>5832</v>
       </c>
       <c r="B779" s="6" t="s">
-        <v>1499</v>
+        <v>1493</v>
       </c>
       <c r="C779" s="4" t="s">
-        <v>1613</v>
+        <v>1607</v>
       </c>
       <c r="D779" s="6" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E779" s="3">
         <f>IFERROR(VLOOKUP(A779,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -45602,13 +45602,13 @@
         <v>5884</v>
       </c>
       <c r="B780" s="6" t="s">
-        <v>1500</v>
+        <v>1494</v>
       </c>
       <c r="C780" s="4" t="s">
-        <v>1614</v>
+        <v>1608</v>
       </c>
       <c r="D780" s="6" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E780" s="3">
         <f>IFERROR(VLOOKUP(A780,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -45620,13 +45620,13 @@
         <v>5843</v>
       </c>
       <c r="B781" s="6" t="s">
-        <v>1511</v>
+        <v>1505</v>
       </c>
       <c r="C781" s="4" t="s">
-        <v>1625</v>
+        <v>1619</v>
       </c>
       <c r="D781" s="6" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E781" s="3">
         <f>IFERROR(VLOOKUP(A781,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -45638,13 +45638,13 @@
         <v>5844</v>
       </c>
       <c r="B782" s="6" t="s">
-        <v>1512</v>
+        <v>1506</v>
       </c>
       <c r="C782" s="4" t="s">
-        <v>1626</v>
+        <v>1620</v>
       </c>
       <c r="D782" s="6" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E782" s="3">
         <f>IFERROR(VLOOKUP(A782,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -45656,13 +45656,13 @@
         <v>5842</v>
       </c>
       <c r="B783" s="6" t="s">
-        <v>1513</v>
+        <v>1507</v>
       </c>
       <c r="C783" s="4" t="s">
-        <v>1627</v>
+        <v>1621</v>
       </c>
       <c r="D783" s="6" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E783" s="3">
         <f>IFERROR(VLOOKUP(A783,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -45674,13 +45674,13 @@
         <v>5883</v>
       </c>
       <c r="B784" s="6" t="s">
-        <v>1516</v>
+        <v>1510</v>
       </c>
       <c r="C784" s="4" t="s">
-        <v>1630</v>
+        <v>1624</v>
       </c>
       <c r="D784" s="6" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E784" s="3">
         <f>IFERROR(VLOOKUP(A784,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -45698,7 +45698,7 @@
         <v>381</v>
       </c>
       <c r="D785" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E785" s="3">
         <f>IFERROR(VLOOKUP(A785,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -45716,7 +45716,7 @@
         <v>88</v>
       </c>
       <c r="D786" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E786" s="3">
         <f>IFERROR(VLOOKUP(A786,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -45734,7 +45734,7 @@
         <v>407</v>
       </c>
       <c r="D787" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E787" s="3">
         <f>IFERROR(VLOOKUP(A787,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -45746,13 +45746,13 @@
         <v>5877</v>
       </c>
       <c r="B788" s="6" t="s">
-        <v>1495</v>
+        <v>1489</v>
       </c>
       <c r="C788" s="4" t="s">
-        <v>1609</v>
+        <v>1603</v>
       </c>
       <c r="D788" s="6" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E788" s="3">
         <f>IFERROR(VLOOKUP(A788,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -45770,7 +45770,7 @@
         <v>357</v>
       </c>
       <c r="D789" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E789" s="3">
         <f>IFERROR(VLOOKUP(A789,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -45782,13 +45782,13 @@
         <v>5878</v>
       </c>
       <c r="B790" s="6" t="s">
-        <v>1494</v>
+        <v>1488</v>
       </c>
       <c r="C790" s="4" t="s">
-        <v>1608</v>
+        <v>1602</v>
       </c>
       <c r="D790" s="6" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E790" s="3">
         <f>IFERROR(VLOOKUP(A790,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -45806,7 +45806,7 @@
         <v>241</v>
       </c>
       <c r="D791" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E791" s="3">
         <f>IFERROR(VLOOKUP(A791,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -45824,7 +45824,7 @@
         <v>391</v>
       </c>
       <c r="D792" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E792" s="3">
         <f>IFERROR(VLOOKUP(A792,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -45836,13 +45836,13 @@
         <v>5880</v>
       </c>
       <c r="B793" s="6" t="s">
-        <v>1493</v>
+        <v>1487</v>
       </c>
       <c r="C793" s="4" t="s">
-        <v>1607</v>
+        <v>1601</v>
       </c>
       <c r="D793" s="6" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E793" s="3">
         <f>IFERROR(VLOOKUP(A793,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -45860,7 +45860,7 @@
         <v>18</v>
       </c>
       <c r="D794" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E794" s="3">
         <f>IFERROR(VLOOKUP(A794,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -45878,7 +45878,7 @@
         <v>81</v>
       </c>
       <c r="D795" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E795" s="3">
         <f>IFERROR(VLOOKUP(A795,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -45896,7 +45896,7 @@
         <v>286</v>
       </c>
       <c r="D796" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E796" s="3">
         <f>IFERROR(VLOOKUP(A796,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -45914,7 +45914,7 @@
         <v>404</v>
       </c>
       <c r="D797" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E797" s="3">
         <f>IFERROR(VLOOKUP(A797,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -45926,13 +45926,13 @@
         <v>5879</v>
       </c>
       <c r="B798" s="6" t="s">
-        <v>1491</v>
+        <v>1485</v>
       </c>
       <c r="C798" s="4" t="s">
-        <v>1605</v>
+        <v>1599</v>
       </c>
       <c r="D798" s="6" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E798" s="3">
         <f>IFERROR(VLOOKUP(A798,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -45950,7 +45950,7 @@
         <v>53</v>
       </c>
       <c r="D799" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E799" s="3">
         <f>IFERROR(VLOOKUP(A799,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -45968,7 +45968,7 @@
         <v>134</v>
       </c>
       <c r="D800" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E800" s="3">
         <f>IFERROR(VLOOKUP(A800,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -45986,7 +45986,7 @@
         <v>187</v>
       </c>
       <c r="D801" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E801" s="3">
         <f>IFERROR(VLOOKUP(A801,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -46004,7 +46004,7 @@
         <v>285</v>
       </c>
       <c r="D802" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E802" s="3">
         <f>IFERROR(VLOOKUP(A802,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -46022,7 +46022,7 @@
         <v>406</v>
       </c>
       <c r="D803" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E803" s="3">
         <f>IFERROR(VLOOKUP(A803,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -46040,7 +46040,7 @@
         <v>98</v>
       </c>
       <c r="D804" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E804" s="3">
         <f>IFERROR(VLOOKUP(A804,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -46058,7 +46058,7 @@
         <v>225</v>
       </c>
       <c r="D805" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E805" s="3">
         <f>IFERROR(VLOOKUP(A805,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -46076,7 +46076,7 @@
         <v>296</v>
       </c>
       <c r="D806" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E806" s="3">
         <f>IFERROR(VLOOKUP(A806,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -46094,7 +46094,7 @@
         <v>85</v>
       </c>
       <c r="D807" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E807" s="3">
         <f>IFERROR(VLOOKUP(A807,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -46112,7 +46112,7 @@
         <v>292</v>
       </c>
       <c r="D808" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E808" s="3">
         <f>IFERROR(VLOOKUP(A808,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -46130,7 +46130,7 @@
         <v>322</v>
       </c>
       <c r="D809" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E809" s="3">
         <f>IFERROR(VLOOKUP(A809,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -46148,7 +46148,7 @@
         <v>51</v>
       </c>
       <c r="D810" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E810" s="3">
         <f>IFERROR(VLOOKUP(A810,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -46166,7 +46166,7 @@
         <v>52</v>
       </c>
       <c r="D811" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E811" s="3">
         <f>IFERROR(VLOOKUP(A811,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -46184,7 +46184,7 @@
         <v>86</v>
       </c>
       <c r="D812" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E812" s="3">
         <f>IFERROR(VLOOKUP(A812,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -46202,7 +46202,7 @@
         <v>87</v>
       </c>
       <c r="D813" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E813" s="3">
         <f>IFERROR(VLOOKUP(A813,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -46220,7 +46220,7 @@
         <v>144</v>
       </c>
       <c r="D814" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E814" s="3">
         <f>IFERROR(VLOOKUP(A814,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -46238,7 +46238,7 @@
         <v>145</v>
       </c>
       <c r="D815" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E815" s="3">
         <f>IFERROR(VLOOKUP(A815,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -46256,7 +46256,7 @@
         <v>213</v>
       </c>
       <c r="D816" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E816" s="3">
         <f>IFERROR(VLOOKUP(A816,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -46274,7 +46274,7 @@
         <v>214</v>
       </c>
       <c r="D817" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E817" s="3">
         <f>IFERROR(VLOOKUP(A817,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -46292,7 +46292,7 @@
         <v>217</v>
       </c>
       <c r="D818" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E818" s="3">
         <f>IFERROR(VLOOKUP(A818,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -46310,7 +46310,7 @@
         <v>293</v>
       </c>
       <c r="D819" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E819" s="3">
         <f>IFERROR(VLOOKUP(A819,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -46328,7 +46328,7 @@
         <v>392</v>
       </c>
       <c r="D820" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E820" s="3">
         <f>IFERROR(VLOOKUP(A820,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -46346,7 +46346,7 @@
         <v>393</v>
       </c>
       <c r="D821" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E821" s="3">
         <f>IFERROR(VLOOKUP(A821,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -46364,7 +46364,7 @@
         <v>441</v>
       </c>
       <c r="D822" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E822" s="3">
         <f>IFERROR(VLOOKUP(A822,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -46382,7 +46382,7 @@
         <v>446</v>
       </c>
       <c r="D823" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E823" s="3">
         <f>IFERROR(VLOOKUP(A823,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -46400,7 +46400,7 @@
         <v>466</v>
       </c>
       <c r="D824" s="4" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E824" s="3">
         <f>IFERROR(VLOOKUP(A824,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -46412,13 +46412,13 @@
         <v>5882</v>
       </c>
       <c r="B825" s="6" t="s">
-        <v>1505</v>
+        <v>1499</v>
       </c>
       <c r="C825" s="4" t="s">
-        <v>1619</v>
+        <v>1613</v>
       </c>
       <c r="D825" s="6" t="s">
-        <v>1475</v>
+        <v>1705</v>
       </c>
       <c r="E825" s="3">
         <f>IFERROR(VLOOKUP(A825,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -46436,7 +46436,7 @@
         <v>400</v>
       </c>
       <c r="D826" s="4" t="s">
-        <v>1477</v>
+        <v>1706</v>
       </c>
       <c r="E826" s="3">
         <f>IFERROR(VLOOKUP(A826,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -46454,7 +46454,7 @@
         <v>24</v>
       </c>
       <c r="D827" s="4" t="s">
-        <v>1477</v>
+        <v>1706</v>
       </c>
       <c r="E827" s="3">
         <f>IFERROR(VLOOKUP(A827,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -46472,7 +46472,7 @@
         <v>289</v>
       </c>
       <c r="D828" s="4" t="s">
-        <v>1477</v>
+        <v>1706</v>
       </c>
       <c r="E828" s="3">
         <f>IFERROR(VLOOKUP(A828,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -46490,7 +46490,7 @@
         <v>401</v>
       </c>
       <c r="D829" s="4" t="s">
-        <v>1477</v>
+        <v>1706</v>
       </c>
       <c r="E829" s="3">
         <f>IFERROR(VLOOKUP(A829,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -46508,7 +46508,7 @@
         <v>117</v>
       </c>
       <c r="D830" s="4" t="s">
-        <v>1477</v>
+        <v>1706</v>
       </c>
       <c r="E830" s="3">
         <f>IFERROR(VLOOKUP(A830,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -46520,13 +46520,13 @@
         <v>1768</v>
       </c>
       <c r="B831" s="6" t="s">
-        <v>1591</v>
+        <v>1585</v>
       </c>
       <c r="C831" s="4" t="s">
+        <v>1700</v>
+      </c>
+      <c r="D831" s="6" t="s">
         <v>1706</v>
-      </c>
-      <c r="D831" s="6" t="s">
-        <v>1477</v>
       </c>
       <c r="E831" s="3">
         <f>IFERROR(VLOOKUP(A831,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -46544,7 +46544,7 @@
         <v>402</v>
       </c>
       <c r="D832" s="4" t="s">
-        <v>1477</v>
+        <v>1706</v>
       </c>
       <c r="E832" s="3">
         <f>IFERROR(VLOOKUP(A832,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -46562,7 +46562,7 @@
         <v>252</v>
       </c>
       <c r="D833" s="4" t="s">
-        <v>1477</v>
+        <v>1706</v>
       </c>
       <c r="E833" s="3">
         <f>IFERROR(VLOOKUP(A833,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -46580,7 +46580,7 @@
         <v>434</v>
       </c>
       <c r="D834" s="4" t="s">
-        <v>1477</v>
+        <v>1706</v>
       </c>
       <c r="E834" s="3">
         <f>IFERROR(VLOOKUP(A834,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -46598,7 +46598,7 @@
         <v>433</v>
       </c>
       <c r="D835" s="4" t="s">
-        <v>1477</v>
+        <v>1706</v>
       </c>
       <c r="E835" s="3">
         <f>IFERROR(VLOOKUP(A835,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -46616,7 +46616,7 @@
         <v>398</v>
       </c>
       <c r="D836" s="4" t="s">
-        <v>1477</v>
+        <v>1706</v>
       </c>
       <c r="E836" s="3">
         <f>IFERROR(VLOOKUP(A836,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -46634,7 +46634,7 @@
         <v>431</v>
       </c>
       <c r="D837" s="4" t="s">
-        <v>1477</v>
+        <v>1706</v>
       </c>
       <c r="E837" s="3">
         <f>IFERROR(VLOOKUP(A837,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -46652,7 +46652,7 @@
         <v>25</v>
       </c>
       <c r="D838" s="4" t="s">
-        <v>1477</v>
+        <v>1706</v>
       </c>
       <c r="E838" s="3">
         <f>IFERROR(VLOOKUP(A838,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -46670,7 +46670,7 @@
         <v>403</v>
       </c>
       <c r="D839" s="4" t="s">
-        <v>1477</v>
+        <v>1706</v>
       </c>
       <c r="E839" s="3">
         <f>IFERROR(VLOOKUP(A839,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -46688,7 +46688,7 @@
         <v>49</v>
       </c>
       <c r="D840" s="4" t="s">
-        <v>1477</v>
+        <v>1706</v>
       </c>
       <c r="E840" s="3">
         <f>IFERROR(VLOOKUP(A840,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -46706,7 +46706,7 @@
         <v>396</v>
       </c>
       <c r="D841" s="4" t="s">
-        <v>1477</v>
+        <v>1706</v>
       </c>
       <c r="E841" s="3">
         <f>IFERROR(VLOOKUP(A841,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -46724,7 +46724,7 @@
         <v>301</v>
       </c>
       <c r="D842" s="4" t="s">
-        <v>1477</v>
+        <v>1706</v>
       </c>
       <c r="E842" s="3">
         <f>IFERROR(VLOOKUP(A842,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -46742,7 +46742,7 @@
         <v>303</v>
       </c>
       <c r="D843" s="4" t="s">
-        <v>1477</v>
+        <v>1706</v>
       </c>
       <c r="E843" s="3">
         <f>IFERROR(VLOOKUP(A843,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -46760,7 +46760,7 @@
         <v>48</v>
       </c>
       <c r="D844" s="4" t="s">
-        <v>1477</v>
+        <v>1706</v>
       </c>
       <c r="E844" s="3">
         <f>IFERROR(VLOOKUP(A844,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -46772,13 +46772,13 @@
         <v>5679</v>
       </c>
       <c r="B845" s="6" t="s">
-        <v>1504</v>
+        <v>1498</v>
       </c>
       <c r="C845" s="4" t="s">
-        <v>1618</v>
+        <v>1612</v>
       </c>
       <c r="D845" s="6" t="s">
-        <v>1477</v>
+        <v>1706</v>
       </c>
       <c r="E845" s="3">
         <f>IFERROR(VLOOKUP(A845,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -46796,7 +46796,7 @@
         <v>300</v>
       </c>
       <c r="D846" s="4" t="s">
-        <v>1477</v>
+        <v>1706</v>
       </c>
       <c r="E846" s="3">
         <f>IFERROR(VLOOKUP(A846,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -46814,7 +46814,7 @@
         <v>253</v>
       </c>
       <c r="D847" s="4" t="s">
-        <v>1477</v>
+        <v>1706</v>
       </c>
       <c r="E847" s="3">
         <f>IFERROR(VLOOKUP(A847,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -46832,7 +46832,7 @@
         <v>116</v>
       </c>
       <c r="D848" s="4" t="s">
-        <v>1477</v>
+        <v>1706</v>
       </c>
       <c r="E848" s="3">
         <f>IFERROR(VLOOKUP(A848,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -46850,7 +46850,7 @@
         <v>389</v>
       </c>
       <c r="D849" s="4" t="s">
-        <v>1477</v>
+        <v>1706</v>
       </c>
       <c r="E849" s="3">
         <f>IFERROR(VLOOKUP(A849,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -46868,7 +46868,7 @@
         <v>432</v>
       </c>
       <c r="D850" s="4" t="s">
-        <v>1477</v>
+        <v>1706</v>
       </c>
       <c r="E850" s="3">
         <f>IFERROR(VLOOKUP(A850,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
